--- a/Gold Coast_stats.xlsx
+++ b/Gold Coast_stats.xlsx
@@ -12436,7 +12436,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -16664,7 +16664,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -17268,7 +17268,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -17872,7 +17872,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -28744,7 +28744,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -30556,7 +30556,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -31160,7 +31160,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -32972,7 +32972,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -34180,7 +34180,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -34784,7 +34784,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -35388,7 +35388,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -35992,7 +35992,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -36596,7 +36596,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -37200,7 +37200,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -37804,7 +37804,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -38408,7 +38408,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -39012,7 +39012,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -39616,7 +39616,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -40220,7 +40220,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -40824,7 +40824,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -41428,7 +41428,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -42032,7 +42032,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -42636,7 +42636,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -43240,7 +43240,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -43844,7 +43844,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -44448,7 +44448,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -45052,7 +45052,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -45656,7 +45656,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -46260,7 +46260,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -46864,7 +46864,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -47468,7 +47468,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -48072,7 +48072,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -48676,7 +48676,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -49280,7 +49280,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -49884,7 +49884,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -50488,7 +50488,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -51092,7 +51092,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -51696,7 +51696,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -52300,7 +52300,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -52904,7 +52904,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -53508,7 +53508,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -54112,7 +54112,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -54716,7 +54716,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -55320,7 +55320,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -55924,7 +55924,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -56528,7 +56528,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -57132,7 +57132,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -57736,7 +57736,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -58340,7 +58340,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -58944,7 +58944,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -59548,7 +59548,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -60152,7 +60152,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -60756,7 +60756,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -61360,7 +61360,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Gold Coast_stats.xlsx
+++ b/Gold Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GR102"/>
+  <dimension ref="A1:GT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,6 +956,12 @@
       <c r="GR1" t="n">
         <v>9933</v>
       </c>
+      <c r="GS1" t="n">
+        <v>10131</v>
+      </c>
+      <c r="GT1" t="n">
+        <v>10141</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1560,6 +1566,12 @@
       <c r="GR2" t="n">
         <v>2020</v>
       </c>
+      <c r="GS2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2164,6 +2176,12 @@
       <c r="GR3" t="n">
         <v>1</v>
       </c>
+      <c r="GS3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2768,6 +2786,12 @@
       <c r="GR4" t="n">
         <v>0</v>
       </c>
+      <c r="GS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3372,6 +3396,12 @@
       <c r="GR5" t="n">
         <v>1</v>
       </c>
+      <c r="GS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3976,6 +4006,12 @@
       <c r="GR6" t="n">
         <v>29</v>
       </c>
+      <c r="GS6" t="n">
+        <v>90</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4580,6 +4616,12 @@
       <c r="GR7" t="n">
         <v>76</v>
       </c>
+      <c r="GS7" t="n">
+        <v>46</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5184,6 +5226,12 @@
       <c r="GR8" t="n">
         <v>-47</v>
       </c>
+      <c r="GS8" t="n">
+        <v>44</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5788,6 +5836,12 @@
       <c r="GR9" t="n">
         <v>0</v>
       </c>
+      <c r="GS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6392,6 +6446,12 @@
       <c r="GR10" t="n">
         <v>13</v>
       </c>
+      <c r="GS10" t="n">
+        <v>17</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6996,6 +7056,12 @@
       <c r="GR11" t="n">
         <v>173</v>
       </c>
+      <c r="GS11" t="n">
+        <v>207</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7600,6 +7666,12 @@
       <c r="GR12" t="n">
         <v>123</v>
       </c>
+      <c r="GS12" t="n">
+        <v>130</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8204,6 +8276,12 @@
       <c r="GR13" t="n">
         <v>296</v>
       </c>
+      <c r="GS13" t="n">
+        <v>337</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8808,6 +8886,12 @@
       <c r="GR14" t="n">
         <v>1.41</v>
       </c>
+      <c r="GS14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="GT14" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9412,6 +9496,12 @@
       <c r="GR15" t="n">
         <v>59</v>
       </c>
+      <c r="GS15" t="n">
+        <v>68</v>
+      </c>
+      <c r="GT15" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10016,6 +10106,12 @@
       <c r="GR16" t="n">
         <v>40</v>
       </c>
+      <c r="GS16" t="n">
+        <v>38</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10620,6 +10716,12 @@
       <c r="GR17" t="n">
         <v>34</v>
       </c>
+      <c r="GS17" t="n">
+        <v>28</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11224,6 +11326,12 @@
       <c r="GR18" t="n">
         <v>14</v>
       </c>
+      <c r="GS18" t="n">
+        <v>16</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11828,6 +11936,12 @@
       <c r="GR19" t="n">
         <v>17</v>
       </c>
+      <c r="GS19" t="n">
+        <v>16</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12432,6 +12546,12 @@
       <c r="GR20" t="n">
         <v>4</v>
       </c>
+      <c r="GS20" t="n">
+        <v>14</v>
+      </c>
+      <c r="GT20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13036,6 +13156,12 @@
       <c r="GR21" t="n">
         <v>3</v>
       </c>
+      <c r="GS21" t="n">
+        <v>10</v>
+      </c>
+      <c r="GT21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13640,6 +13766,12 @@
       <c r="GR22" t="n">
         <v>2</v>
       </c>
+      <c r="GS22" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14244,6 +14376,12 @@
       <c r="GR23" t="n">
         <v>3</v>
       </c>
+      <c r="GS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14848,6 +14986,12 @@
       <c r="GR24" t="n">
         <v>9</v>
       </c>
+      <c r="GS24" t="n">
+        <v>20</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15452,6 +15596,12 @@
       <c r="GR25" t="n">
         <v>44.4</v>
       </c>
+      <c r="GS25" t="n">
+        <v>70</v>
+      </c>
+      <c r="GT25" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16056,6 +16206,12 @@
       <c r="GR26" t="n">
         <v>74</v>
       </c>
+      <c r="GS26" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="GT26" t="n">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16660,6 +16816,12 @@
       <c r="GR27" t="n">
         <v>32.89</v>
       </c>
+      <c r="GS27" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="GT27" t="n">
+        <v>14.45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17264,6 +17426,12 @@
       <c r="GR28" t="n">
         <v>24</v>
       </c>
+      <c r="GS28" t="n">
+        <v>32</v>
+      </c>
+      <c r="GT28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17868,6 +18036,12 @@
       <c r="GR29" t="n">
         <v>45</v>
       </c>
+      <c r="GS29" t="n">
+        <v>64</v>
+      </c>
+      <c r="GT29" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18472,6 +18646,12 @@
       <c r="GR30" t="n">
         <v>51</v>
       </c>
+      <c r="GS30" t="n">
+        <v>39</v>
+      </c>
+      <c r="GT30" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19076,6 +19256,12 @@
       <c r="GR31" t="n">
         <v>31</v>
       </c>
+      <c r="GS31" t="n">
+        <v>49</v>
+      </c>
+      <c r="GT31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19680,6 +19866,12 @@
       <c r="GR32" t="n">
         <v>3.44</v>
       </c>
+      <c r="GS32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="GT32" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20284,6 +20476,12 @@
       <c r="GR33" t="n">
         <v>7.75</v>
       </c>
+      <c r="GS33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="GT33" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -20888,6 +21086,12 @@
       <c r="GR34" t="n">
         <v>19.4</v>
       </c>
+      <c r="GS34" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="GT34" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21492,6 +21696,12 @@
       <c r="GR35" t="n">
         <v>12.9</v>
       </c>
+      <c r="GS35" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="GT35" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22096,6 +22306,12 @@
       <c r="GR36" t="n">
         <v>187.6</v>
       </c>
+      <c r="GS36" t="n">
+        <v>187</v>
+      </c>
+      <c r="GT36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -22700,6 +22916,12 @@
       <c r="GR37" t="n">
         <v>86.3</v>
       </c>
+      <c r="GS37" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="GT37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23304,6 +23526,12 @@
       <c r="GR38" t="n">
         <v>23.16</v>
       </c>
+      <c r="GS38" t="n">
+        <v>24</v>
+      </c>
+      <c r="GT38" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -23908,6 +24136,12 @@
       <c r="GR39" t="n">
         <v>56.3</v>
       </c>
+      <c r="GS39" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="GT39" t="n">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24512,6 +24746,12 @@
       <c r="GR40" t="n">
         <v>13</v>
       </c>
+      <c r="GS40" t="n">
+        <v>13</v>
+      </c>
+      <c r="GT40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25116,6 +25356,12 @@
       <c r="GR41" t="n">
         <v>4</v>
       </c>
+      <c r="GS41" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -25720,6 +25966,12 @@
       <c r="GR42" t="n">
         <v>4</v>
       </c>
+      <c r="GS42" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26324,6 +26576,12 @@
       <c r="GR43" t="n">
         <v>1</v>
       </c>
+      <c r="GS43" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -26928,6 +27186,12 @@
       <c r="GR44" t="n">
         <v>118</v>
       </c>
+      <c r="GS44" t="n">
+        <v>137</v>
+      </c>
+      <c r="GT44" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -27532,6 +27796,12 @@
       <c r="GR45" t="n">
         <v>167</v>
       </c>
+      <c r="GS45" t="n">
+        <v>197</v>
+      </c>
+      <c r="GT45" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28136,6 +28406,12 @@
       <c r="GR46" t="n">
         <v>206</v>
       </c>
+      <c r="GS46" t="n">
+        <v>234</v>
+      </c>
+      <c r="GT46" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -28740,6 +29016,12 @@
       <c r="GR47" t="n">
         <v>69.59999999999999</v>
       </c>
+      <c r="GS47" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="GT47" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29344,6 +29626,12 @@
       <c r="GR48" t="n">
         <v>45</v>
       </c>
+      <c r="GS48" t="n">
+        <v>64</v>
+      </c>
+      <c r="GT48" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -29948,6 +30236,12 @@
       <c r="GR49" t="n">
         <v>9</v>
       </c>
+      <c r="GS49" t="n">
+        <v>7</v>
+      </c>
+      <c r="GT49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -30552,6 +30846,12 @@
       <c r="GR50" t="n">
         <v>4</v>
       </c>
+      <c r="GS50" t="n">
+        <v>7</v>
+      </c>
+      <c r="GT50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31156,6 +31456,12 @@
       <c r="GR51" t="n">
         <v>24</v>
       </c>
+      <c r="GS51" t="n">
+        <v>32</v>
+      </c>
+      <c r="GT51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -31760,6 +32066,12 @@
       <c r="GR52" t="n">
         <v>51</v>
       </c>
+      <c r="GS52" t="n">
+        <v>39</v>
+      </c>
+      <c r="GT52" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -32364,6 +32676,12 @@
       <c r="GR53" t="n">
         <v>35</v>
       </c>
+      <c r="GS53" t="n">
+        <v>58</v>
+      </c>
+      <c r="GT53" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -32968,6 +33286,12 @@
       <c r="GR54" t="n">
         <v>2</v>
       </c>
+      <c r="GS54" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -33572,6 +33896,12 @@
       <c r="GR55" t="n">
         <v>3</v>
       </c>
+      <c r="GS55" t="n">
+        <v>10</v>
+      </c>
+      <c r="GT55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34176,6 +34506,12 @@
       <c r="GR56" t="n">
         <v>75</v>
       </c>
+      <c r="GS56" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="GT56" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -34780,6 +35116,12 @@
       <c r="GR57" t="n">
         <v>218</v>
       </c>
+      <c r="GS57" t="n">
+        <v>183</v>
+      </c>
+      <c r="GT57" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -35384,6 +35726,12 @@
       <c r="GR58" t="n">
         <v>139</v>
       </c>
+      <c r="GS58" t="n">
+        <v>104</v>
+      </c>
+      <c r="GT58" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -35988,6 +36336,12 @@
       <c r="GR59" t="n">
         <v>357</v>
       </c>
+      <c r="GS59" t="n">
+        <v>287</v>
+      </c>
+      <c r="GT59" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -36592,6 +36946,12 @@
       <c r="GR60" t="n">
         <v>1.57</v>
       </c>
+      <c r="GS60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="GT60" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37196,6 +37556,12 @@
       <c r="GR61" t="n">
         <v>90</v>
       </c>
+      <c r="GS61" t="n">
+        <v>56</v>
+      </c>
+      <c r="GT61" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -37800,6 +38166,12 @@
       <c r="GR62" t="n">
         <v>58</v>
       </c>
+      <c r="GS62" t="n">
+        <v>55</v>
+      </c>
+      <c r="GT62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -38404,6 +38776,12 @@
       <c r="GR63" t="n">
         <v>32</v>
       </c>
+      <c r="GS63" t="n">
+        <v>43</v>
+      </c>
+      <c r="GT63" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39008,6 +39386,12 @@
       <c r="GR64" t="n">
         <v>17</v>
       </c>
+      <c r="GS64" t="n">
+        <v>16</v>
+      </c>
+      <c r="GT64" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -39612,6 +39996,12 @@
       <c r="GR65" t="n">
         <v>14</v>
       </c>
+      <c r="GS65" t="n">
+        <v>16</v>
+      </c>
+      <c r="GT65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -40216,6 +40606,12 @@
       <c r="GR66" t="n">
         <v>10</v>
       </c>
+      <c r="GS66" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -40820,6 +41216,12 @@
       <c r="GR67" t="n">
         <v>8</v>
       </c>
+      <c r="GS67" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -41424,6 +41826,12 @@
       <c r="GR68" t="n">
         <v>13</v>
       </c>
+      <c r="GS68" t="n">
+        <v>9</v>
+      </c>
+      <c r="GT68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42028,6 +42436,12 @@
       <c r="GR69" t="n">
         <v>3</v>
       </c>
+      <c r="GS69" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -42632,6 +43046,12 @@
       <c r="GR70" t="n">
         <v>26</v>
       </c>
+      <c r="GS70" t="n">
+        <v>16</v>
+      </c>
+      <c r="GT70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -43236,6 +43656,12 @@
       <c r="GR71" t="n">
         <v>38.5</v>
       </c>
+      <c r="GS71" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="GT71" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -43840,6 +44266,12 @@
       <c r="GR72" t="n">
         <v>35.7</v>
       </c>
+      <c r="GS72" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="GT72" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -44444,6 +44876,12 @@
       <c r="GR73" t="n">
         <v>13.73</v>
       </c>
+      <c r="GS73" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="GT73" t="n">
+        <v>27.78</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45048,6 +45486,12 @@
       <c r="GR74" t="n">
         <v>35</v>
       </c>
+      <c r="GS74" t="n">
+        <v>33</v>
+      </c>
+      <c r="GT74" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -45652,6 +46096,12 @@
       <c r="GR75" t="n">
         <v>44</v>
       </c>
+      <c r="GS75" t="n">
+        <v>53</v>
+      </c>
+      <c r="GT75" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -46256,6 +46706,12 @@
       <c r="GR76" t="n">
         <v>26</v>
       </c>
+      <c r="GS76" t="n">
+        <v>33</v>
+      </c>
+      <c r="GT76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -46860,6 +47316,12 @@
       <c r="GR77" t="n">
         <v>62</v>
       </c>
+      <c r="GS77" t="n">
+        <v>46</v>
+      </c>
+      <c r="GT77" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -47464,6 +47926,12 @@
       <c r="GR78" t="n">
         <v>2.38</v>
       </c>
+      <c r="GS78" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="GT78" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -48068,6 +48536,12 @@
       <c r="GR79" t="n">
         <v>6.2</v>
       </c>
+      <c r="GS79" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="GT79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -48672,6 +49146,12 @@
       <c r="GR80" t="n">
         <v>37.1</v>
       </c>
+      <c r="GS80" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="GT80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -49276,6 +49756,12 @@
       <c r="GR81" t="n">
         <v>16.1</v>
       </c>
+      <c r="GS81" t="n">
+        <v>13</v>
+      </c>
+      <c r="GT81" t="n">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -49880,6 +50366,12 @@
       <c r="GR82" t="n">
         <v>188.4</v>
       </c>
+      <c r="GS82" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="GT82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -50484,6 +50976,12 @@
       <c r="GR83" t="n">
         <v>83.5</v>
       </c>
+      <c r="GS83" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="GT83" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -51088,6 +51586,12 @@
       <c r="GR84" t="n">
         <v>25.8</v>
       </c>
+      <c r="GS84" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="GT84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -51692,6 +52196,12 @@
       <c r="GR85" t="n">
         <v>108.3</v>
       </c>
+      <c r="GS85" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="GT85" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -52296,6 +52806,12 @@
       <c r="GR86" t="n">
         <v>6</v>
       </c>
+      <c r="GS86" t="n">
+        <v>5</v>
+      </c>
+      <c r="GT86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -52900,6 +53416,12 @@
       <c r="GR87" t="n">
         <v>7</v>
       </c>
+      <c r="GS87" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -53504,6 +54026,12 @@
       <c r="GR88" t="n">
         <v>2</v>
       </c>
+      <c r="GS88" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -54108,6 +54636,12 @@
       <c r="GR89" t="n">
         <v>7</v>
       </c>
+      <c r="GS89" t="n">
+        <v>11</v>
+      </c>
+      <c r="GT89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -54712,6 +55246,12 @@
       <c r="GR90" t="n">
         <v>131</v>
       </c>
+      <c r="GS90" t="n">
+        <v>115</v>
+      </c>
+      <c r="GT90" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -55316,6 +55856,12 @@
       <c r="GR91" t="n">
         <v>221</v>
       </c>
+      <c r="GS91" t="n">
+        <v>160</v>
+      </c>
+      <c r="GT91" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -55920,6 +56466,12 @@
       <c r="GR92" t="n">
         <v>263</v>
       </c>
+      <c r="GS92" t="n">
+        <v>191</v>
+      </c>
+      <c r="GT92" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -56524,6 +57076,12 @@
       <c r="GR93" t="n">
         <v>73.7</v>
       </c>
+      <c r="GS93" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="GT93" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -57128,6 +57686,12 @@
       <c r="GR94" t="n">
         <v>44</v>
       </c>
+      <c r="GS94" t="n">
+        <v>53</v>
+      </c>
+      <c r="GT94" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -57732,6 +58296,12 @@
       <c r="GR95" t="n">
         <v>7</v>
       </c>
+      <c r="GS95" t="n">
+        <v>5</v>
+      </c>
+      <c r="GT95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -58336,6 +58906,12 @@
       <c r="GR96" t="n">
         <v>12</v>
       </c>
+      <c r="GS96" t="n">
+        <v>8</v>
+      </c>
+      <c r="GT96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -58940,6 +59516,12 @@
       <c r="GR97" t="n">
         <v>35</v>
       </c>
+      <c r="GS97" t="n">
+        <v>33</v>
+      </c>
+      <c r="GT97" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -59544,6 +60126,12 @@
       <c r="GR98" t="n">
         <v>26</v>
       </c>
+      <c r="GS98" t="n">
+        <v>33</v>
+      </c>
+      <c r="GT98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -60148,6 +60736,12 @@
       <c r="GR99" t="n">
         <v>41</v>
       </c>
+      <c r="GS99" t="n">
+        <v>54</v>
+      </c>
+      <c r="GT99" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -60752,6 +61346,12 @@
       <c r="GR100" t="n">
         <v>2</v>
       </c>
+      <c r="GS100" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -61356,6 +61956,12 @@
       <c r="GR101" t="n">
         <v>8</v>
       </c>
+      <c r="GS101" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -61960,8 +62566,14 @@
       <c r="GR102" t="n">
         <v>80</v>
       </c>
+      <c r="GS102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GT102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Gold Coast_stats.xlsx
+++ b/Gold Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GT102"/>
+  <dimension ref="A1:GU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,6 +962,9 @@
       <c r="GT1" t="n">
         <v>10141</v>
       </c>
+      <c r="GU1" t="n">
+        <v>10149</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1572,6 +1575,9 @@
       <c r="GT2" t="n">
         <v>2020</v>
       </c>
+      <c r="GU2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2182,6 +2188,9 @@
       <c r="GT3" t="n">
         <v>3</v>
       </c>
+      <c r="GU3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2792,6 +2801,9 @@
       <c r="GT4" t="n">
         <v>0</v>
       </c>
+      <c r="GU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3402,6 +3414,9 @@
       <c r="GT5" t="n">
         <v>0</v>
       </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4012,6 +4027,9 @@
       <c r="GT6" t="n">
         <v>82</v>
       </c>
+      <c r="GU6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4622,6 +4640,9 @@
       <c r="GT7" t="n">
         <v>29</v>
       </c>
+      <c r="GU7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5232,6 +5253,9 @@
       <c r="GT8" t="n">
         <v>53</v>
       </c>
+      <c r="GU8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5842,6 +5866,9 @@
       <c r="GT9" t="n">
         <v>1</v>
       </c>
+      <c r="GU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6452,6 +6479,9 @@
       <c r="GT10" t="n">
         <v>1</v>
       </c>
+      <c r="GU10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7062,6 +7092,9 @@
       <c r="GT11" t="n">
         <v>195</v>
       </c>
+      <c r="GU11" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7672,6 +7705,9 @@
       <c r="GT12" t="n">
         <v>123</v>
       </c>
+      <c r="GU12" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8282,6 +8318,9 @@
       <c r="GT13" t="n">
         <v>318</v>
       </c>
+      <c r="GU13" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8892,6 +8931,9 @@
       <c r="GT14" t="n">
         <v>1.59</v>
       </c>
+      <c r="GU14" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9502,6 +9544,9 @@
       <c r="GT15" t="n">
         <v>87</v>
       </c>
+      <c r="GU15" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10112,6 +10157,9 @@
       <c r="GT16" t="n">
         <v>75</v>
       </c>
+      <c r="GU16" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10722,6 +10770,9 @@
       <c r="GT17" t="n">
         <v>27</v>
       </c>
+      <c r="GU17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11332,6 +11383,9 @@
       <c r="GT18" t="n">
         <v>16</v>
       </c>
+      <c r="GU18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11942,6 +11996,9 @@
       <c r="GT19" t="n">
         <v>26</v>
       </c>
+      <c r="GU19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12552,6 +12609,9 @@
       <c r="GT20" t="n">
         <v>12</v>
       </c>
+      <c r="GU20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13162,6 +13222,9 @@
       <c r="GT21" t="n">
         <v>7</v>
       </c>
+      <c r="GU21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13772,6 +13835,9 @@
       <c r="GT22" t="n">
         <v>9</v>
       </c>
+      <c r="GU22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14382,6 +14448,9 @@
       <c r="GT23" t="n">
         <v>1</v>
       </c>
+      <c r="GU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14992,6 +15061,9 @@
       <c r="GT24" t="n">
         <v>22</v>
       </c>
+      <c r="GU24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15602,6 +15674,9 @@
       <c r="GT25" t="n">
         <v>54.5</v>
       </c>
+      <c r="GU25" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16212,6 +16287,9 @@
       <c r="GT26" t="n">
         <v>26.5</v>
       </c>
+      <c r="GU26" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16822,6 +16900,9 @@
       <c r="GT27" t="n">
         <v>14.45</v>
       </c>
+      <c r="GU27" t="n">
+        <v>20.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17432,6 +17513,9 @@
       <c r="GT28" t="n">
         <v>38</v>
       </c>
+      <c r="GU28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18042,6 +18126,9 @@
       <c r="GT29" t="n">
         <v>61</v>
       </c>
+      <c r="GU29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18652,6 +18739,9 @@
       <c r="GT30" t="n">
         <v>24</v>
       </c>
+      <c r="GU30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19262,6 +19352,9 @@
       <c r="GT31" t="n">
         <v>56</v>
       </c>
+      <c r="GU31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19872,6 +19965,9 @@
       <c r="GT32" t="n">
         <v>2.55</v>
       </c>
+      <c r="GU32" t="n">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20482,6 +20578,9 @@
       <c r="GT33" t="n">
         <v>4.67</v>
       </c>
+      <c r="GU33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21092,6 +21191,9 @@
       <c r="GT34" t="n">
         <v>37.5</v>
       </c>
+      <c r="GU34" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21702,6 +21804,9 @@
       <c r="GT35" t="n">
         <v>21.4</v>
       </c>
+      <c r="GU35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22312,6 +22417,9 @@
       <c r="GT36" t="n">
         <v>186.9</v>
       </c>
+      <c r="GU36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -22922,6 +23030,9 @@
       <c r="GT37" t="n">
         <v>85.3</v>
       </c>
+      <c r="GU37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23532,6 +23643,9 @@
       <c r="GT38" t="n">
         <v>24.33</v>
       </c>
+      <c r="GU38" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24142,6 +24256,9 @@
       <c r="GT39" t="n">
         <v>74.2</v>
       </c>
+      <c r="GU39" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24752,6 +24869,9 @@
       <c r="GT40" t="n">
         <v>12</v>
       </c>
+      <c r="GU40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25362,6 +25482,9 @@
       <c r="GT41" t="n">
         <v>2</v>
       </c>
+      <c r="GU41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -25972,6 +26095,9 @@
       <c r="GT42" t="n">
         <v>5</v>
       </c>
+      <c r="GU42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26582,6 +26708,9 @@
       <c r="GT43" t="n">
         <v>3</v>
       </c>
+      <c r="GU43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27192,6 +27321,9 @@
       <c r="GT44" t="n">
         <v>122</v>
       </c>
+      <c r="GU44" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -27802,6 +27934,9 @@
       <c r="GT45" t="n">
         <v>192</v>
       </c>
+      <c r="GU45" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28412,6 +28547,9 @@
       <c r="GT46" t="n">
         <v>227</v>
       </c>
+      <c r="GU46" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29022,6 +29160,9 @@
       <c r="GT47" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="GU47" t="n">
+        <v>67.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29632,6 +29773,9 @@
       <c r="GT48" t="n">
         <v>61</v>
       </c>
+      <c r="GU48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30242,6 +30386,9 @@
       <c r="GT49" t="n">
         <v>11</v>
       </c>
+      <c r="GU49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -30852,6 +30999,9 @@
       <c r="GT50" t="n">
         <v>10</v>
       </c>
+      <c r="GU50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31462,6 +31612,9 @@
       <c r="GT51" t="n">
         <v>38</v>
       </c>
+      <c r="GU51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32072,6 +32225,9 @@
       <c r="GT52" t="n">
         <v>24</v>
       </c>
+      <c r="GU52" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -32682,6 +32838,9 @@
       <c r="GT53" t="n">
         <v>36</v>
       </c>
+      <c r="GU53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33292,6 +33451,9 @@
       <c r="GT54" t="n">
         <v>4</v>
       </c>
+      <c r="GU54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -33902,6 +34064,9 @@
       <c r="GT55" t="n">
         <v>7</v>
       </c>
+      <c r="GU55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34512,6 +34677,9 @@
       <c r="GT56" t="n">
         <v>58.3</v>
       </c>
+      <c r="GU56" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35122,6 +35290,9 @@
       <c r="GT57" t="n">
         <v>145</v>
       </c>
+      <c r="GU57" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -35732,6 +35903,9 @@
       <c r="GT58" t="n">
         <v>105</v>
       </c>
+      <c r="GU58" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36342,6 +36516,9 @@
       <c r="GT59" t="n">
         <v>250</v>
       </c>
+      <c r="GU59" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -36952,6 +37129,9 @@
       <c r="GT60" t="n">
         <v>1.38</v>
       </c>
+      <c r="GU60" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37562,6 +37742,9 @@
       <c r="GT61" t="n">
         <v>56</v>
       </c>
+      <c r="GU61" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38172,6 +38355,9 @@
       <c r="GT62" t="n">
         <v>57</v>
       </c>
+      <c r="GU62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -38782,6 +38968,9 @@
       <c r="GT63" t="n">
         <v>39</v>
       </c>
+      <c r="GU63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39392,6 +39581,9 @@
       <c r="GT64" t="n">
         <v>26</v>
       </c>
+      <c r="GU64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40002,6 +40194,9 @@
       <c r="GT65" t="n">
         <v>16</v>
       </c>
+      <c r="GU65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -40612,6 +40807,9 @@
       <c r="GT66" t="n">
         <v>4</v>
       </c>
+      <c r="GU66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41222,6 +41420,9 @@
       <c r="GT67" t="n">
         <v>2</v>
       </c>
+      <c r="GU67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -41832,6 +42033,9 @@
       <c r="GT68" t="n">
         <v>3</v>
       </c>
+      <c r="GU68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42442,6 +42646,9 @@
       <c r="GT69" t="n">
         <v>2</v>
       </c>
+      <c r="GU69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43052,6 +43259,9 @@
       <c r="GT70" t="n">
         <v>9</v>
       </c>
+      <c r="GU70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -43662,6 +43872,9 @@
       <c r="GT71" t="n">
         <v>44.4</v>
       </c>
+      <c r="GU71" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44272,6 +44485,9 @@
       <c r="GT72" t="n">
         <v>62.5</v>
       </c>
+      <c r="GU72" t="n">
+        <v>33.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -44882,6 +45098,9 @@
       <c r="GT73" t="n">
         <v>27.78</v>
       </c>
+      <c r="GU73" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45492,6 +45711,9 @@
       <c r="GT74" t="n">
         <v>25</v>
       </c>
+      <c r="GU74" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46102,6 +46324,9 @@
       <c r="GT75" t="n">
         <v>46</v>
       </c>
+      <c r="GU75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -46712,6 +46937,9 @@
       <c r="GT76" t="n">
         <v>43</v>
       </c>
+      <c r="GU76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -47322,6 +47550,9 @@
       <c r="GT77" t="n">
         <v>28</v>
       </c>
+      <c r="GU77" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -47932,6 +48163,9 @@
       <c r="GT78" t="n">
         <v>3.11</v>
       </c>
+      <c r="GU78" t="n">
+        <v>2.82</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -48542,6 +48776,9 @@
       <c r="GT79" t="n">
         <v>7</v>
       </c>
+      <c r="GU79" t="n">
+        <v>3.88</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49152,6 +49389,9 @@
       <c r="GT80" t="n">
         <v>25</v>
       </c>
+      <c r="GU80" t="n">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -49762,6 +50002,9 @@
       <c r="GT81" t="n">
         <v>14.3</v>
       </c>
+      <c r="GU81" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -50372,6 +50615,9 @@
       <c r="GT82" t="n">
         <v>187.3</v>
       </c>
+      <c r="GU82" t="n">
+        <v>186.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -50982,6 +51228,9 @@
       <c r="GT83" t="n">
         <v>85.8</v>
       </c>
+      <c r="GU83" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -51592,6 +51841,9 @@
       <c r="GT84" t="n">
         <v>25</v>
       </c>
+      <c r="GU84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52202,6 +52454,9 @@
       <c r="GT85" t="n">
         <v>84</v>
       </c>
+      <c r="GU85" t="n">
+        <v>91.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -52812,6 +53067,9 @@
       <c r="GT86" t="n">
         <v>10</v>
       </c>
+      <c r="GU86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -53422,6 +53680,9 @@
       <c r="GT87" t="n">
         <v>2</v>
       </c>
+      <c r="GU87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54032,6 +54293,9 @@
       <c r="GT88" t="n">
         <v>5</v>
       </c>
+      <c r="GU88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -54642,6 +54906,9 @@
       <c r="GT89" t="n">
         <v>5</v>
       </c>
+      <c r="GU89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -55252,6 +55519,9 @@
       <c r="GT90" t="n">
         <v>105</v>
       </c>
+      <c r="GU90" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -55862,6 +56132,9 @@
       <c r="GT91" t="n">
         <v>143</v>
       </c>
+      <c r="GU91" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -56472,6 +56745,9 @@
       <c r="GT92" t="n">
         <v>180</v>
       </c>
+      <c r="GU92" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57082,6 +57358,9 @@
       <c r="GT93" t="n">
         <v>72</v>
       </c>
+      <c r="GU93" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -57692,6 +57971,9 @@
       <c r="GT94" t="n">
         <v>46</v>
       </c>
+      <c r="GU94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -58302,6 +58584,9 @@
       <c r="GT95" t="n">
         <v>5</v>
       </c>
+      <c r="GU95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -58912,6 +59197,9 @@
       <c r="GT96" t="n">
         <v>2</v>
       </c>
+      <c r="GU96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -59522,6 +59810,9 @@
       <c r="GT97" t="n">
         <v>25</v>
       </c>
+      <c r="GU97" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -60132,6 +60423,9 @@
       <c r="GT98" t="n">
         <v>43</v>
       </c>
+      <c r="GU98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -60742,6 +61036,9 @@
       <c r="GT99" t="n">
         <v>33</v>
       </c>
+      <c r="GU99" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -61352,6 +61649,9 @@
       <c r="GT100" t="n">
         <v>2</v>
       </c>
+      <c r="GU100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -61962,6 +62262,9 @@
       <c r="GT101" t="n">
         <v>2</v>
       </c>
+      <c r="GU101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -62572,8 +62875,11 @@
       <c r="GT102" t="n">
         <v>50</v>
       </c>
+      <c r="GU102" t="n">
+        <v>37.5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Gold Coast_stats.xlsx
+++ b/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GU102"/>
+  <dimension ref="A1:GV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,6 +965,9 @@
       <c r="GU1" t="n">
         <v>10149</v>
       </c>
+      <c r="GV1" t="n">
+        <v>10185</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1578,6 +1581,9 @@
       <c r="GU2" t="n">
         <v>2020</v>
       </c>
+      <c r="GV2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2191,6 +2197,9 @@
       <c r="GU3" t="n">
         <v>4</v>
       </c>
+      <c r="GV3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2804,6 +2813,9 @@
       <c r="GU4" t="n">
         <v>0</v>
       </c>
+      <c r="GV4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3417,6 +3429,9 @@
       <c r="GU5" t="n">
         <v>0</v>
       </c>
+      <c r="GV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4030,6 +4045,9 @@
       <c r="GU6" t="n">
         <v>64</v>
       </c>
+      <c r="GV6" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4643,6 +4661,9 @@
       <c r="GU7" t="n">
         <v>51</v>
       </c>
+      <c r="GV7" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5256,6 +5277,9 @@
       <c r="GU8" t="n">
         <v>13</v>
       </c>
+      <c r="GV8" t="n">
+        <v>-37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5869,6 +5893,9 @@
       <c r="GU9" t="n">
         <v>1</v>
       </c>
+      <c r="GV9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6482,6 +6509,9 @@
       <c r="GU10" t="n">
         <v>6</v>
       </c>
+      <c r="GV10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7095,6 +7125,9 @@
       <c r="GU11" t="n">
         <v>180</v>
       </c>
+      <c r="GV11" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7708,6 +7741,9 @@
       <c r="GU12" t="n">
         <v>106</v>
       </c>
+      <c r="GV12" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8321,6 +8357,9 @@
       <c r="GU13" t="n">
         <v>286</v>
       </c>
+      <c r="GV13" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8934,6 +8973,9 @@
       <c r="GU14" t="n">
         <v>1.7</v>
       </c>
+      <c r="GV14" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9547,6 +9589,9 @@
       <c r="GU15" t="n">
         <v>82</v>
       </c>
+      <c r="GV15" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10160,6 +10205,9 @@
       <c r="GU16" t="n">
         <v>47</v>
       </c>
+      <c r="GV16" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10773,6 +10821,9 @@
       <c r="GU17" t="n">
         <v>42</v>
       </c>
+      <c r="GV17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11386,6 +11437,9 @@
       <c r="GU18" t="n">
         <v>14</v>
       </c>
+      <c r="GV18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11999,6 +12053,9 @@
       <c r="GU19" t="n">
         <v>20</v>
       </c>
+      <c r="GV19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12612,6 +12669,9 @@
       <c r="GU20" t="n">
         <v>10</v>
       </c>
+      <c r="GV20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13225,6 +13285,9 @@
       <c r="GU21" t="n">
         <v>8</v>
       </c>
+      <c r="GV21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13838,6 +13901,9 @@
       <c r="GU22" t="n">
         <v>3</v>
       </c>
+      <c r="GV22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14451,6 +14517,9 @@
       <c r="GU23" t="n">
         <v>1</v>
       </c>
+      <c r="GV23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15064,6 +15133,9 @@
       <c r="GU24" t="n">
         <v>14</v>
       </c>
+      <c r="GV24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15677,6 +15749,9 @@
       <c r="GU25" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="GV25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16290,6 +16365,9 @@
       <c r="GU26" t="n">
         <v>28.6</v>
       </c>
+      <c r="GV26" t="n">
+        <v>31.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16903,6 +16981,9 @@
       <c r="GU27" t="n">
         <v>20.43</v>
       </c>
+      <c r="GV27" t="n">
+        <v>20.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17516,6 +17597,9 @@
       <c r="GU28" t="n">
         <v>37</v>
       </c>
+      <c r="GV28" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18129,6 +18213,9 @@
       <c r="GU29" t="n">
         <v>54</v>
       </c>
+      <c r="GV29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18742,6 +18829,9 @@
       <c r="GU30" t="n">
         <v>22</v>
       </c>
+      <c r="GV30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19355,6 +19445,9 @@
       <c r="GU31" t="n">
         <v>50</v>
       </c>
+      <c r="GV31" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19968,6 +20061,9 @@
       <c r="GU32" t="n">
         <v>3.57</v>
       </c>
+      <c r="GV32" t="n">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20581,6 +20677,9 @@
       <c r="GU33" t="n">
         <v>5</v>
       </c>
+      <c r="GV33" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21194,6 +21293,9 @@
       <c r="GU34" t="n">
         <v>26</v>
       </c>
+      <c r="GV34" t="n">
+        <v>39.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21807,6 +21909,9 @@
       <c r="GU35" t="n">
         <v>20</v>
       </c>
+      <c r="GV35" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22420,6 +22525,9 @@
       <c r="GU36" t="n">
         <v>186.9</v>
       </c>
+      <c r="GV36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23033,6 +23141,9 @@
       <c r="GU37" t="n">
         <v>85.3</v>
       </c>
+      <c r="GV37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23646,6 +23757,9 @@
       <c r="GU38" t="n">
         <v>24.33</v>
       </c>
+      <c r="GV38" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24259,6 +24373,9 @@
       <c r="GU39" t="n">
         <v>75.2</v>
       </c>
+      <c r="GV39" t="n">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24872,6 +24989,9 @@
       <c r="GU40" t="n">
         <v>12</v>
       </c>
+      <c r="GV40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25485,6 +25605,9 @@
       <c r="GU41" t="n">
         <v>2</v>
       </c>
+      <c r="GV41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26098,6 +26221,9 @@
       <c r="GU42" t="n">
         <v>5</v>
       </c>
+      <c r="GV42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26711,6 +26837,9 @@
       <c r="GU43" t="n">
         <v>3</v>
       </c>
+      <c r="GV43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27324,6 +27453,9 @@
       <c r="GU44" t="n">
         <v>119</v>
       </c>
+      <c r="GV44" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -27937,6 +28069,9 @@
       <c r="GU45" t="n">
         <v>166</v>
       </c>
+      <c r="GV45" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28550,6 +28685,9 @@
       <c r="GU46" t="n">
         <v>193</v>
       </c>
+      <c r="GV46" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29163,6 +29301,9 @@
       <c r="GU47" t="n">
         <v>67.5</v>
       </c>
+      <c r="GV47" t="n">
+        <v>65.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29776,6 +29917,9 @@
       <c r="GU48" t="n">
         <v>54</v>
       </c>
+      <c r="GV48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30389,6 +30533,9 @@
       <c r="GU49" t="n">
         <v>11</v>
       </c>
+      <c r="GV49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31002,6 +31149,9 @@
       <c r="GU50" t="n">
         <v>9</v>
       </c>
+      <c r="GV50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31615,6 +31765,9 @@
       <c r="GU51" t="n">
         <v>37</v>
       </c>
+      <c r="GV51" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32228,6 +32381,9 @@
       <c r="GU52" t="n">
         <v>22</v>
       </c>
+      <c r="GV52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -32841,6 +32997,9 @@
       <c r="GU53" t="n">
         <v>38</v>
       </c>
+      <c r="GV53" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33454,6 +33613,9 @@
       <c r="GU54" t="n">
         <v>3</v>
       </c>
+      <c r="GV54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34067,6 +34229,9 @@
       <c r="GU55" t="n">
         <v>8</v>
       </c>
+      <c r="GV55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34680,6 +34845,9 @@
       <c r="GU56" t="n">
         <v>80</v>
       </c>
+      <c r="GV56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35293,6 +35461,9 @@
       <c r="GU57" t="n">
         <v>163</v>
       </c>
+      <c r="GV57" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -35906,6 +36077,9 @@
       <c r="GU58" t="n">
         <v>103</v>
       </c>
+      <c r="GV58" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36519,6 +36693,9 @@
       <c r="GU59" t="n">
         <v>266</v>
       </c>
+      <c r="GV59" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37132,6 +37309,9 @@
       <c r="GU60" t="n">
         <v>1.58</v>
       </c>
+      <c r="GV60" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37745,6 +37925,9 @@
       <c r="GU61" t="n">
         <v>81</v>
       </c>
+      <c r="GV61" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38358,6 +38541,9 @@
       <c r="GU62" t="n">
         <v>51</v>
       </c>
+      <c r="GV62" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -38971,6 +39157,9 @@
       <c r="GU63" t="n">
         <v>18</v>
       </c>
+      <c r="GV63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39584,6 +39773,9 @@
       <c r="GU64" t="n">
         <v>20</v>
       </c>
+      <c r="GV64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40197,6 +40389,9 @@
       <c r="GU65" t="n">
         <v>14</v>
       </c>
+      <c r="GV65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -40810,6 +41005,9 @@
       <c r="GU66" t="n">
         <v>8</v>
       </c>
+      <c r="GV66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41423,6 +41621,9 @@
       <c r="GU67" t="n">
         <v>3</v>
       </c>
+      <c r="GV67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42036,6 +42237,9 @@
       <c r="GU68" t="n">
         <v>3</v>
       </c>
+      <c r="GV68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42649,6 +42853,9 @@
       <c r="GU69" t="n">
         <v>0</v>
       </c>
+      <c r="GV69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43262,6 +43469,9 @@
       <c r="GU70" t="n">
         <v>11</v>
       </c>
+      <c r="GV70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -43875,6 +44085,9 @@
       <c r="GU71" t="n">
         <v>72.7</v>
       </c>
+      <c r="GV71" t="n">
+        <v>54.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44488,6 +44701,9 @@
       <c r="GU72" t="n">
         <v>33.25</v>
       </c>
+      <c r="GV72" t="n">
+        <v>24.69</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45101,6 +45317,9 @@
       <c r="GU73" t="n">
         <v>24.18</v>
       </c>
+      <c r="GV73" t="n">
+        <v>13.38</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45714,6 +45933,9 @@
       <c r="GU74" t="n">
         <v>22</v>
       </c>
+      <c r="GV74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46327,6 +46549,9 @@
       <c r="GU75" t="n">
         <v>48</v>
       </c>
+      <c r="GV75" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -46940,6 +47165,9 @@
       <c r="GU76" t="n">
         <v>40</v>
       </c>
+      <c r="GV76" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -47553,6 +47781,9 @@
       <c r="GU77" t="n">
         <v>31</v>
       </c>
+      <c r="GV77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48166,6 +48397,9 @@
       <c r="GU78" t="n">
         <v>2.82</v>
       </c>
+      <c r="GV78" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -48779,6 +49013,9 @@
       <c r="GU79" t="n">
         <v>3.88</v>
       </c>
+      <c r="GV79" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49392,6 +49629,9 @@
       <c r="GU80" t="n">
         <v>35.5</v>
       </c>
+      <c r="GV80" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50005,6 +50245,9 @@
       <c r="GU81" t="n">
         <v>25.8</v>
       </c>
+      <c r="GV81" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -50618,6 +50861,9 @@
       <c r="GU82" t="n">
         <v>186.2</v>
       </c>
+      <c r="GV82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51231,6 +51477,9 @@
       <c r="GU83" t="n">
         <v>87</v>
       </c>
+      <c r="GV83" t="n">
+        <v>89.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -51844,6 +52093,9 @@
       <c r="GU84" t="n">
         <v>25.58</v>
       </c>
+      <c r="GV84" t="n">
+        <v>27.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52457,6 +52709,9 @@
       <c r="GU85" t="n">
         <v>91.40000000000001</v>
       </c>
+      <c r="GV85" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53070,6 +53325,9 @@
       <c r="GU86" t="n">
         <v>7</v>
       </c>
+      <c r="GV86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -53683,6 +53941,9 @@
       <c r="GU87" t="n">
         <v>7</v>
       </c>
+      <c r="GV87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54296,6 +54557,9 @@
       <c r="GU88" t="n">
         <v>4</v>
       </c>
+      <c r="GV88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -54909,6 +55173,9 @@
       <c r="GU89" t="n">
         <v>4</v>
       </c>
+      <c r="GV89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -55522,6 +55789,9 @@
       <c r="GU90" t="n">
         <v>111</v>
       </c>
+      <c r="GV90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56135,6 +56405,9 @@
       <c r="GU91" t="n">
         <v>149</v>
       </c>
+      <c r="GV91" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -56748,6 +57021,9 @@
       <c r="GU92" t="n">
         <v>191</v>
       </c>
+      <c r="GV92" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57361,6 +57637,9 @@
       <c r="GU93" t="n">
         <v>71.8</v>
       </c>
+      <c r="GV93" t="n">
+        <v>70.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -57974,6 +58253,9 @@
       <c r="GU94" t="n">
         <v>48</v>
       </c>
+      <c r="GV94" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -58587,6 +58869,9 @@
       <c r="GU95" t="n">
         <v>15</v>
       </c>
+      <c r="GV95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -59200,6 +59485,9 @@
       <c r="GU96" t="n">
         <v>8</v>
       </c>
+      <c r="GV96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -59813,6 +60101,9 @@
       <c r="GU97" t="n">
         <v>22</v>
       </c>
+      <c r="GV97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -60426,6 +60717,9 @@
       <c r="GU98" t="n">
         <v>40</v>
       </c>
+      <c r="GV98" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61039,6 +61333,9 @@
       <c r="GU99" t="n">
         <v>30</v>
       </c>
+      <c r="GV99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -61652,6 +61949,9 @@
       <c r="GU100" t="n">
         <v>1</v>
       </c>
+      <c r="GV100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -62265,6 +62565,9 @@
       <c r="GU101" t="n">
         <v>3</v>
       </c>
+      <c r="GV101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -62878,6 +63181,9 @@
       <c r="GU102" t="n">
         <v>37.5</v>
       </c>
+      <c r="GV102" t="n">
+        <v>61.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Gold Coast_stats.xlsx
+++ b/Gold Coast_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GV102"/>
+  <dimension ref="A1:GY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,6 +968,15 @@
       <c r="GV1" t="n">
         <v>10185</v>
       </c>
+      <c r="GW1" t="n">
+        <v>10213</v>
+      </c>
+      <c r="GX1" t="n">
+        <v>10221</v>
+      </c>
+      <c r="GY1" t="n">
+        <v>10227</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1584,6 +1593,15 @@
       <c r="GV2" t="n">
         <v>2020</v>
       </c>
+      <c r="GW2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2200,6 +2218,15 @@
       <c r="GV3" t="n">
         <v>5</v>
       </c>
+      <c r="GW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>7</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2816,6 +2843,15 @@
       <c r="GV4" t="n">
         <v>1</v>
       </c>
+      <c r="GW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3432,6 +3468,15 @@
       <c r="GV5" t="n">
         <v>0</v>
       </c>
+      <c r="GW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4048,6 +4093,15 @@
       <c r="GV6" t="n">
         <v>52</v>
       </c>
+      <c r="GW6" t="n">
+        <v>63</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>92</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4664,6 +4718,15 @@
       <c r="GV7" t="n">
         <v>89</v>
       </c>
+      <c r="GW7" t="n">
+        <v>80</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>60</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5280,6 +5343,15 @@
       <c r="GV8" t="n">
         <v>-37</v>
       </c>
+      <c r="GW8" t="n">
+        <v>-17</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>32</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5896,6 +5968,15 @@
       <c r="GV9" t="n">
         <v>0</v>
       </c>
+      <c r="GW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6512,6 +6593,15 @@
       <c r="GV10" t="n">
         <v>7</v>
       </c>
+      <c r="GW10" t="n">
+        <v>11</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>16</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7128,6 +7218,15 @@
       <c r="GV11" t="n">
         <v>161</v>
       </c>
+      <c r="GW11" t="n">
+        <v>168</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>186</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7744,6 +7843,15 @@
       <c r="GV12" t="n">
         <v>89</v>
       </c>
+      <c r="GW12" t="n">
+        <v>113</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>110</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8360,6 +8468,15 @@
       <c r="GV13" t="n">
         <v>250</v>
       </c>
+      <c r="GW13" t="n">
+        <v>281</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>296</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8976,6 +9093,15 @@
       <c r="GV14" t="n">
         <v>1.81</v>
       </c>
+      <c r="GW14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9592,6 +9718,15 @@
       <c r="GV15" t="n">
         <v>65</v>
       </c>
+      <c r="GW15" t="n">
+        <v>75</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>63</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10208,6 +10343,15 @@
       <c r="GV16" t="n">
         <v>68</v>
       </c>
+      <c r="GW16" t="n">
+        <v>56</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>56</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10824,6 +10968,15 @@
       <c r="GV17" t="n">
         <v>33</v>
       </c>
+      <c r="GW17" t="n">
+        <v>20</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>40</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11440,6 +11593,15 @@
       <c r="GV18" t="n">
         <v>22</v>
       </c>
+      <c r="GW18" t="n">
+        <v>17</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>19</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12056,6 +12218,15 @@
       <c r="GV19" t="n">
         <v>11</v>
       </c>
+      <c r="GW19" t="n">
+        <v>15</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>28</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12672,6 +12843,15 @@
       <c r="GV20" t="n">
         <v>8</v>
       </c>
+      <c r="GW20" t="n">
+        <v>9</v>
+      </c>
+      <c r="GX20" t="n">
+        <v>13</v>
+      </c>
+      <c r="GY20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13288,6 +13468,15 @@
       <c r="GV21" t="n">
         <v>4</v>
       </c>
+      <c r="GW21" t="n">
+        <v>5</v>
+      </c>
+      <c r="GX21" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13904,6 +14093,15 @@
       <c r="GV22" t="n">
         <v>3</v>
       </c>
+      <c r="GW22" t="n">
+        <v>9</v>
+      </c>
+      <c r="GX22" t="n">
+        <v>11</v>
+      </c>
+      <c r="GY22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14520,6 +14718,15 @@
       <c r="GV23" t="n">
         <v>1</v>
       </c>
+      <c r="GW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15136,6 +15343,15 @@
       <c r="GV24" t="n">
         <v>12</v>
       </c>
+      <c r="GW24" t="n">
+        <v>18</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>27</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15752,6 +15968,15 @@
       <c r="GV25" t="n">
         <v>66.7</v>
       </c>
+      <c r="GW25" t="n">
+        <v>50</v>
+      </c>
+      <c r="GX25" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16368,6 +16593,15 @@
       <c r="GV26" t="n">
         <v>31.25</v>
       </c>
+      <c r="GW26" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="GX26" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>48.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16984,6 +17218,15 @@
       <c r="GV27" t="n">
         <v>20.83</v>
       </c>
+      <c r="GW27" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="GX27" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="GY27" t="n">
+        <v>18.19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17600,6 +17843,15 @@
       <c r="GV28" t="n">
         <v>28</v>
       </c>
+      <c r="GW28" t="n">
+        <v>21</v>
+      </c>
+      <c r="GX28" t="n">
+        <v>38</v>
+      </c>
+      <c r="GY28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18216,6 +18468,15 @@
       <c r="GV29" t="n">
         <v>53</v>
       </c>
+      <c r="GW29" t="n">
+        <v>50</v>
+      </c>
+      <c r="GX29" t="n">
+        <v>55</v>
+      </c>
+      <c r="GY29" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18832,6 +19093,15 @@
       <c r="GV30" t="n">
         <v>35</v>
       </c>
+      <c r="GW30" t="n">
+        <v>34</v>
+      </c>
+      <c r="GX30" t="n">
+        <v>35</v>
+      </c>
+      <c r="GY30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19448,6 +19718,15 @@
       <c r="GV31" t="n">
         <v>28</v>
       </c>
+      <c r="GW31" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX31" t="n">
+        <v>53</v>
+      </c>
+      <c r="GY31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20064,6 +20343,15 @@
       <c r="GV32" t="n">
         <v>2.33</v>
       </c>
+      <c r="GW32" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="GX32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="GY32" t="n">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20680,6 +20968,15 @@
       <c r="GV33" t="n">
         <v>3.5</v>
       </c>
+      <c r="GW33" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="GX33" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="GY33" t="n">
+        <v>7.83</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21296,6 +21593,15 @@
       <c r="GV34" t="n">
         <v>39.3</v>
       </c>
+      <c r="GW34" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="GX34" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="GY34" t="n">
+        <v>27.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21912,6 +22218,15 @@
       <c r="GV35" t="n">
         <v>28.6</v>
       </c>
+      <c r="GW35" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="GX35" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="GY35" t="n">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22528,6 +22843,15 @@
       <c r="GV36" t="n">
         <v>186.9</v>
       </c>
+      <c r="GW36" t="n">
+        <v>187</v>
+      </c>
+      <c r="GX36" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="GY36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23144,6 +23468,15 @@
       <c r="GV37" t="n">
         <v>85.3</v>
       </c>
+      <c r="GW37" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="GX37" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="GY37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23760,6 +24093,15 @@
       <c r="GV38" t="n">
         <v>24.33</v>
       </c>
+      <c r="GW38" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="GX38" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="GY38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24376,6 +24718,15 @@
       <c r="GV39" t="n">
         <v>76.2</v>
       </c>
+      <c r="GW39" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="GX39" t="n">
+        <v>78</v>
+      </c>
+      <c r="GY39" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24992,6 +25343,15 @@
       <c r="GV40" t="n">
         <v>12</v>
       </c>
+      <c r="GW40" t="n">
+        <v>11</v>
+      </c>
+      <c r="GX40" t="n">
+        <v>11</v>
+      </c>
+      <c r="GY40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25608,6 +25968,15 @@
       <c r="GV41" t="n">
         <v>2</v>
       </c>
+      <c r="GW41" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX41" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26224,6 +26593,15 @@
       <c r="GV42" t="n">
         <v>5</v>
       </c>
+      <c r="GW42" t="n">
+        <v>5</v>
+      </c>
+      <c r="GX42" t="n">
+        <v>5</v>
+      </c>
+      <c r="GY42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26840,6 +27218,15 @@
       <c r="GV43" t="n">
         <v>3</v>
       </c>
+      <c r="GW43" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX43" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27456,6 +27843,15 @@
       <c r="GV44" t="n">
         <v>110</v>
       </c>
+      <c r="GW44" t="n">
+        <v>103</v>
+      </c>
+      <c r="GX44" t="n">
+        <v>132</v>
+      </c>
+      <c r="GY44" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28072,6 +28468,15 @@
       <c r="GV45" t="n">
         <v>141</v>
       </c>
+      <c r="GW45" t="n">
+        <v>176</v>
+      </c>
+      <c r="GX45" t="n">
+        <v>163</v>
+      </c>
+      <c r="GY45" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28688,6 +29093,15 @@
       <c r="GV46" t="n">
         <v>163</v>
       </c>
+      <c r="GW46" t="n">
+        <v>207</v>
+      </c>
+      <c r="GX46" t="n">
+        <v>192</v>
+      </c>
+      <c r="GY46" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29304,6 +29718,15 @@
       <c r="GV47" t="n">
         <v>65.2</v>
       </c>
+      <c r="GW47" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="GX47" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="GY47" t="n">
+        <v>66.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29920,6 +30343,15 @@
       <c r="GV48" t="n">
         <v>53</v>
       </c>
+      <c r="GW48" t="n">
+        <v>50</v>
+      </c>
+      <c r="GX48" t="n">
+        <v>55</v>
+      </c>
+      <c r="GY48" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30536,6 +30968,15 @@
       <c r="GV49" t="n">
         <v>9</v>
       </c>
+      <c r="GW49" t="n">
+        <v>9</v>
+      </c>
+      <c r="GX49" t="n">
+        <v>5</v>
+      </c>
+      <c r="GY49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31152,6 +31593,15 @@
       <c r="GV50" t="n">
         <v>4</v>
       </c>
+      <c r="GW50" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX50" t="n">
+        <v>8</v>
+      </c>
+      <c r="GY50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31768,6 +32218,15 @@
       <c r="GV51" t="n">
         <v>28</v>
       </c>
+      <c r="GW51" t="n">
+        <v>21</v>
+      </c>
+      <c r="GX51" t="n">
+        <v>38</v>
+      </c>
+      <c r="GY51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32384,6 +32843,15 @@
       <c r="GV52" t="n">
         <v>35</v>
       </c>
+      <c r="GW52" t="n">
+        <v>34</v>
+      </c>
+      <c r="GX52" t="n">
+        <v>35</v>
+      </c>
+      <c r="GY52" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33000,6 +33468,15 @@
       <c r="GV53" t="n">
         <v>26</v>
       </c>
+      <c r="GW53" t="n">
+        <v>41</v>
+      </c>
+      <c r="GX53" t="n">
+        <v>44</v>
+      </c>
+      <c r="GY53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33616,6 +34093,15 @@
       <c r="GV54" t="n">
         <v>2</v>
       </c>
+      <c r="GW54" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX54" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34232,6 +34718,15 @@
       <c r="GV55" t="n">
         <v>4</v>
       </c>
+      <c r="GW55" t="n">
+        <v>5</v>
+      </c>
+      <c r="GX55" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34848,6 +35343,15 @@
       <c r="GV56" t="n">
         <v>50</v>
       </c>
+      <c r="GW56" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="GX56" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="GY56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35464,6 +35968,15 @@
       <c r="GV57" t="n">
         <v>184</v>
       </c>
+      <c r="GW57" t="n">
+        <v>172</v>
+      </c>
+      <c r="GX57" t="n">
+        <v>172</v>
+      </c>
+      <c r="GY57" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36080,6 +36593,15 @@
       <c r="GV58" t="n">
         <v>137</v>
       </c>
+      <c r="GW58" t="n">
+        <v>107</v>
+      </c>
+      <c r="GX58" t="n">
+        <v>115</v>
+      </c>
+      <c r="GY58" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36696,6 +37218,15 @@
       <c r="GV59" t="n">
         <v>321</v>
       </c>
+      <c r="GW59" t="n">
+        <v>279</v>
+      </c>
+      <c r="GX59" t="n">
+        <v>287</v>
+      </c>
+      <c r="GY59" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37312,6 +37843,15 @@
       <c r="GV60" t="n">
         <v>1.34</v>
       </c>
+      <c r="GW60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="GX60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="GY60" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37928,6 +38468,15 @@
       <c r="GV61" t="n">
         <v>81</v>
       </c>
+      <c r="GW61" t="n">
+        <v>67</v>
+      </c>
+      <c r="GX61" t="n">
+        <v>49</v>
+      </c>
+      <c r="GY61" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38544,6 +39093,15 @@
       <c r="GV62" t="n">
         <v>62</v>
       </c>
+      <c r="GW62" t="n">
+        <v>39</v>
+      </c>
+      <c r="GX62" t="n">
+        <v>58</v>
+      </c>
+      <c r="GY62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39160,6 +39718,15 @@
       <c r="GV63" t="n">
         <v>32</v>
       </c>
+      <c r="GW63" t="n">
+        <v>30</v>
+      </c>
+      <c r="GX63" t="n">
+        <v>20</v>
+      </c>
+      <c r="GY63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39776,6 +40343,15 @@
       <c r="GV64" t="n">
         <v>11</v>
       </c>
+      <c r="GW64" t="n">
+        <v>15</v>
+      </c>
+      <c r="GX64" t="n">
+        <v>28</v>
+      </c>
+      <c r="GY64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40392,6 +40968,15 @@
       <c r="GV65" t="n">
         <v>22</v>
       </c>
+      <c r="GW65" t="n">
+        <v>17</v>
+      </c>
+      <c r="GX65" t="n">
+        <v>19</v>
+      </c>
+      <c r="GY65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41008,6 +41593,15 @@
       <c r="GV66" t="n">
         <v>13</v>
       </c>
+      <c r="GW66" t="n">
+        <v>12</v>
+      </c>
+      <c r="GX66" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41624,6 +42218,15 @@
       <c r="GV67" t="n">
         <v>8</v>
       </c>
+      <c r="GW67" t="n">
+        <v>8</v>
+      </c>
+      <c r="GX67" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42240,6 +42843,15 @@
       <c r="GV68" t="n">
         <v>10</v>
       </c>
+      <c r="GW68" t="n">
+        <v>5</v>
+      </c>
+      <c r="GX68" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42856,6 +43468,15 @@
       <c r="GV69" t="n">
         <v>1</v>
       </c>
+      <c r="GW69" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43472,6 +44093,15 @@
       <c r="GV70" t="n">
         <v>24</v>
       </c>
+      <c r="GW70" t="n">
+        <v>20</v>
+      </c>
+      <c r="GX70" t="n">
+        <v>15</v>
+      </c>
+      <c r="GY70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44088,6 +44718,15 @@
       <c r="GV71" t="n">
         <v>54.2</v>
       </c>
+      <c r="GW71" t="n">
+        <v>60</v>
+      </c>
+      <c r="GX71" t="n">
+        <v>60</v>
+      </c>
+      <c r="GY71" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44704,6 +45343,15 @@
       <c r="GV72" t="n">
         <v>24.69</v>
       </c>
+      <c r="GW72" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="GX72" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="GY72" t="n">
+        <v>44.86</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45320,6 +45968,15 @@
       <c r="GV73" t="n">
         <v>13.38</v>
       </c>
+      <c r="GW73" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="GX73" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="GY73" t="n">
+        <v>19.62</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45936,6 +46593,15 @@
       <c r="GV74" t="n">
         <v>33</v>
       </c>
+      <c r="GW74" t="n">
+        <v>31</v>
+      </c>
+      <c r="GX74" t="n">
+        <v>27</v>
+      </c>
+      <c r="GY74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46552,6 +47218,15 @@
       <c r="GV75" t="n">
         <v>58</v>
       </c>
+      <c r="GW75" t="n">
+        <v>51</v>
+      </c>
+      <c r="GX75" t="n">
+        <v>59</v>
+      </c>
+      <c r="GY75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47168,6 +47843,15 @@
       <c r="GV76" t="n">
         <v>18</v>
       </c>
+      <c r="GW76" t="n">
+        <v>26</v>
+      </c>
+      <c r="GX76" t="n">
+        <v>39</v>
+      </c>
+      <c r="GY76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -47784,6 +48468,15 @@
       <c r="GV77" t="n">
         <v>50</v>
       </c>
+      <c r="GW77" t="n">
+        <v>48</v>
+      </c>
+      <c r="GX77" t="n">
+        <v>45</v>
+      </c>
+      <c r="GY77" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48400,6 +49093,15 @@
       <c r="GV78" t="n">
         <v>2.08</v>
       </c>
+      <c r="GW78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="GX78" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY78" t="n">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49016,6 +49718,15 @@
       <c r="GV79" t="n">
         <v>3.85</v>
       </c>
+      <c r="GW79" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX79" t="n">
+        <v>5</v>
+      </c>
+      <c r="GY79" t="n">
+        <v>5.29</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49632,6 +50343,15 @@
       <c r="GV80" t="n">
         <v>46</v>
       </c>
+      <c r="GW80" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="GX80" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="GY80" t="n">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50248,6 +50968,15 @@
       <c r="GV81" t="n">
         <v>26</v>
       </c>
+      <c r="GW81" t="n">
+        <v>25</v>
+      </c>
+      <c r="GX81" t="n">
+        <v>20</v>
+      </c>
+      <c r="GY81" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -50864,6 +51593,15 @@
       <c r="GV82" t="n">
         <v>188.4</v>
       </c>
+      <c r="GW82" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="GX82" t="n">
+        <v>187</v>
+      </c>
+      <c r="GY82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51480,6 +52218,15 @@
       <c r="GV83" t="n">
         <v>89.40000000000001</v>
       </c>
+      <c r="GW83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="GX83" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="GY83" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52096,6 +52843,15 @@
       <c r="GV84" t="n">
         <v>27.66</v>
       </c>
+      <c r="GW84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="GX84" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="GY84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52712,6 +53468,15 @@
       <c r="GV85" t="n">
         <v>142.5</v>
       </c>
+      <c r="GW85" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="GX85" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="GY85" t="n">
+        <v>79.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53328,6 +54093,15 @@
       <c r="GV86" t="n">
         <v>5</v>
       </c>
+      <c r="GW86" t="n">
+        <v>5</v>
+      </c>
+      <c r="GX86" t="n">
+        <v>10</v>
+      </c>
+      <c r="GY86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -53944,6 +54718,15 @@
       <c r="GV87" t="n">
         <v>5</v>
       </c>
+      <c r="GW87" t="n">
+        <v>10</v>
+      </c>
+      <c r="GX87" t="n">
+        <v>7</v>
+      </c>
+      <c r="GY87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54560,6 +55343,15 @@
       <c r="GV88" t="n">
         <v>1</v>
       </c>
+      <c r="GW88" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX88" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55176,6 +55968,15 @@
       <c r="GV89" t="n">
         <v>11</v>
       </c>
+      <c r="GW89" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX89" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -55792,6 +56593,15 @@
       <c r="GV90" t="n">
         <v>120</v>
       </c>
+      <c r="GW90" t="n">
+        <v>127</v>
+      </c>
+      <c r="GX90" t="n">
+        <v>140</v>
+      </c>
+      <c r="GY90" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56408,6 +57218,15 @@
       <c r="GV91" t="n">
         <v>206</v>
       </c>
+      <c r="GW91" t="n">
+        <v>146</v>
+      </c>
+      <c r="GX91" t="n">
+        <v>136</v>
+      </c>
+      <c r="GY91" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57024,6 +57843,15 @@
       <c r="GV92" t="n">
         <v>226</v>
       </c>
+      <c r="GW92" t="n">
+        <v>190</v>
+      </c>
+      <c r="GX92" t="n">
+        <v>198</v>
+      </c>
+      <c r="GY92" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57640,6 +58468,15 @@
       <c r="GV93" t="n">
         <v>70.40000000000001</v>
       </c>
+      <c r="GW93" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="GX93" t="n">
+        <v>69</v>
+      </c>
+      <c r="GY93" t="n">
+        <v>69.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -58256,6 +59093,15 @@
       <c r="GV94" t="n">
         <v>58</v>
       </c>
+      <c r="GW94" t="n">
+        <v>51</v>
+      </c>
+      <c r="GX94" t="n">
+        <v>59</v>
+      </c>
+      <c r="GY94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -58872,6 +59718,15 @@
       <c r="GV95" t="n">
         <v>10</v>
       </c>
+      <c r="GW95" t="n">
+        <v>13</v>
+      </c>
+      <c r="GX95" t="n">
+        <v>11</v>
+      </c>
+      <c r="GY95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -59488,6 +60343,15 @@
       <c r="GV96" t="n">
         <v>14</v>
       </c>
+      <c r="GW96" t="n">
+        <v>12</v>
+      </c>
+      <c r="GX96" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60104,6 +60968,15 @@
       <c r="GV97" t="n">
         <v>33</v>
       </c>
+      <c r="GW97" t="n">
+        <v>31</v>
+      </c>
+      <c r="GX97" t="n">
+        <v>27</v>
+      </c>
+      <c r="GY97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -60720,6 +61593,15 @@
       <c r="GV98" t="n">
         <v>18</v>
       </c>
+      <c r="GW98" t="n">
+        <v>26</v>
+      </c>
+      <c r="GX98" t="n">
+        <v>39</v>
+      </c>
+      <c r="GY98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61336,6 +62218,15 @@
       <c r="GV99" t="n">
         <v>44</v>
       </c>
+      <c r="GW99" t="n">
+        <v>34</v>
+      </c>
+      <c r="GX99" t="n">
+        <v>59</v>
+      </c>
+      <c r="GY99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -61952,6 +62843,15 @@
       <c r="GV100" t="n">
         <v>2</v>
       </c>
+      <c r="GW100" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX100" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -62568,6 +63468,15 @@
       <c r="GV101" t="n">
         <v>8</v>
       </c>
+      <c r="GW101" t="n">
+        <v>8</v>
+      </c>
+      <c r="GX101" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -63184,6 +64093,15 @@
       <c r="GV102" t="n">
         <v>61.5</v>
       </c>
+      <c r="GW102" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GX102" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="GY102" t="n">
+        <v>42.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Gold Coast_stats.xlsx
+++ b/Gold Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GY102"/>
+  <dimension ref="A1:GZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,6 +977,9 @@
       <c r="GY1" t="n">
         <v>10227</v>
       </c>
+      <c r="GZ1" t="n">
+        <v>10243</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1602,6 +1605,9 @@
       <c r="GY2" t="n">
         <v>2020</v>
       </c>
+      <c r="GZ2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2227,6 +2233,9 @@
       <c r="GY3" t="n">
         <v>8</v>
       </c>
+      <c r="GZ3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2852,6 +2861,9 @@
       <c r="GY4" t="n">
         <v>0</v>
       </c>
+      <c r="GZ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3477,6 +3489,9 @@
       <c r="GY5" t="n">
         <v>1</v>
       </c>
+      <c r="GZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4102,6 +4117,9 @@
       <c r="GY6" t="n">
         <v>46</v>
       </c>
+      <c r="GZ6" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4727,6 +4745,9 @@
       <c r="GY7" t="n">
         <v>51</v>
       </c>
+      <c r="GZ7" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5352,6 +5373,9 @@
       <c r="GY8" t="n">
         <v>-5</v>
       </c>
+      <c r="GZ8" t="n">
+        <v>-26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5977,6 +6001,9 @@
       <c r="GY9" t="n">
         <v>0</v>
       </c>
+      <c r="GZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6602,6 +6629,9 @@
       <c r="GY10" t="n">
         <v>18</v>
       </c>
+      <c r="GZ10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7227,6 +7257,9 @@
       <c r="GY11" t="n">
         <v>190</v>
       </c>
+      <c r="GZ11" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7852,6 +7885,9 @@
       <c r="GY12" t="n">
         <v>101</v>
       </c>
+      <c r="GZ12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8477,6 +8513,9 @@
       <c r="GY13" t="n">
         <v>291</v>
       </c>
+      <c r="GZ13" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9102,6 +9141,9 @@
       <c r="GY14" t="n">
         <v>1.88</v>
       </c>
+      <c r="GZ14" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9727,6 +9769,9 @@
       <c r="GY15" t="n">
         <v>62</v>
       </c>
+      <c r="GZ15" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10352,6 +10397,9 @@
       <c r="GY16" t="n">
         <v>61</v>
       </c>
+      <c r="GZ16" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10977,6 +11025,9 @@
       <c r="GY17" t="n">
         <v>48</v>
       </c>
+      <c r="GZ17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11602,6 +11653,9 @@
       <c r="GY18" t="n">
         <v>18</v>
       </c>
+      <c r="GZ18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12227,6 +12281,9 @@
       <c r="GY19" t="n">
         <v>18</v>
       </c>
+      <c r="GZ19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12852,6 +12909,9 @@
       <c r="GY20" t="n">
         <v>6</v>
       </c>
+      <c r="GZ20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13477,6 +13537,9 @@
       <c r="GY21" t="n">
         <v>5</v>
       </c>
+      <c r="GZ21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14102,6 +14165,9 @@
       <c r="GY22" t="n">
         <v>7</v>
       </c>
+      <c r="GZ22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14727,6 +14793,9 @@
       <c r="GY23" t="n">
         <v>3</v>
       </c>
+      <c r="GZ23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15352,6 +15421,9 @@
       <c r="GY24" t="n">
         <v>16</v>
       </c>
+      <c r="GZ24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15977,6 +16049,9 @@
       <c r="GY25" t="n">
         <v>37.5</v>
       </c>
+      <c r="GZ25" t="n">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16602,6 +16677,9 @@
       <c r="GY26" t="n">
         <v>48.5</v>
       </c>
+      <c r="GZ26" t="n">
+        <v>67.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17227,6 +17305,9 @@
       <c r="GY27" t="n">
         <v>18.19</v>
       </c>
+      <c r="GZ27" t="n">
+        <v>17.93</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17852,6 +17933,9 @@
       <c r="GY28" t="n">
         <v>36</v>
       </c>
+      <c r="GZ28" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18477,6 +18561,9 @@
       <c r="GY29" t="n">
         <v>51</v>
       </c>
+      <c r="GZ29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19102,6 +19189,9 @@
       <c r="GY30" t="n">
         <v>29</v>
       </c>
+      <c r="GZ30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19727,6 +19817,9 @@
       <c r="GY31" t="n">
         <v>47</v>
       </c>
+      <c r="GZ31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20352,6 +20445,9 @@
       <c r="GY32" t="n">
         <v>2.94</v>
       </c>
+      <c r="GZ32" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20977,6 +21073,9 @@
       <c r="GY33" t="n">
         <v>7.83</v>
       </c>
+      <c r="GZ33" t="n">
+        <v>9.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21602,6 +21701,9 @@
       <c r="GY34" t="n">
         <v>27.7</v>
       </c>
+      <c r="GZ34" t="n">
+        <v>30.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22227,6 +22329,9 @@
       <c r="GY35" t="n">
         <v>12.8</v>
       </c>
+      <c r="GZ35" t="n">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22852,6 +22957,9 @@
       <c r="GY36" t="n">
         <v>186.9</v>
       </c>
+      <c r="GZ36" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23477,6 +23585,9 @@
       <c r="GY37" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="GZ37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24102,6 +24213,9 @@
       <c r="GY38" t="n">
         <v>24.41</v>
       </c>
+      <c r="GZ38" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24727,6 +24841,9 @@
       <c r="GY39" t="n">
         <v>79</v>
       </c>
+      <c r="GZ39" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25352,6 +25469,9 @@
       <c r="GY40" t="n">
         <v>10</v>
       </c>
+      <c r="GZ40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25977,6 +26097,9 @@
       <c r="GY41" t="n">
         <v>4</v>
       </c>
+      <c r="GZ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26602,6 +26725,9 @@
       <c r="GY42" t="n">
         <v>5</v>
       </c>
+      <c r="GZ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27227,6 +27353,9 @@
       <c r="GY43" t="n">
         <v>3</v>
       </c>
+      <c r="GZ43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27852,6 +27981,9 @@
       <c r="GY44" t="n">
         <v>130</v>
       </c>
+      <c r="GZ44" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28477,6 +28609,9 @@
       <c r="GY45" t="n">
         <v>147</v>
       </c>
+      <c r="GZ45" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29102,6 +29237,9 @@
       <c r="GY46" t="n">
         <v>193</v>
       </c>
+      <c r="GZ46" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29727,6 +29865,9 @@
       <c r="GY47" t="n">
         <v>66.3</v>
       </c>
+      <c r="GZ47" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30352,6 +30493,9 @@
       <c r="GY48" t="n">
         <v>51</v>
       </c>
+      <c r="GZ48" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30977,6 +31121,9 @@
       <c r="GY49" t="n">
         <v>7</v>
       </c>
+      <c r="GZ49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31602,6 +31749,9 @@
       <c r="GY50" t="n">
         <v>7</v>
       </c>
+      <c r="GZ50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32227,6 +32377,9 @@
       <c r="GY51" t="n">
         <v>36</v>
       </c>
+      <c r="GZ51" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32852,6 +33005,9 @@
       <c r="GY52" t="n">
         <v>29</v>
       </c>
+      <c r="GZ52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33477,6 +33633,9 @@
       <c r="GY53" t="n">
         <v>44</v>
       </c>
+      <c r="GZ53" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34102,6 +34261,9 @@
       <c r="GY54" t="n">
         <v>3</v>
       </c>
+      <c r="GZ54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34727,6 +34889,9 @@
       <c r="GY55" t="n">
         <v>5</v>
       </c>
+      <c r="GZ55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35352,6 +35517,9 @@
       <c r="GY56" t="n">
         <v>83.3</v>
       </c>
+      <c r="GZ56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35977,6 +36145,9 @@
       <c r="GY57" t="n">
         <v>180</v>
       </c>
+      <c r="GZ57" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36602,6 +36773,9 @@
       <c r="GY58" t="n">
         <v>134</v>
       </c>
+      <c r="GZ58" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37227,6 +37401,9 @@
       <c r="GY59" t="n">
         <v>314</v>
       </c>
+      <c r="GZ59" t="n">
+        <v>348</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37852,6 +38029,9 @@
       <c r="GY60" t="n">
         <v>1.34</v>
       </c>
+      <c r="GZ60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38477,6 +38657,9 @@
       <c r="GY61" t="n">
         <v>53</v>
       </c>
+      <c r="GZ61" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39102,6 +39285,9 @@
       <c r="GY62" t="n">
         <v>52</v>
       </c>
+      <c r="GZ62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39727,6 +39913,9 @@
       <c r="GY63" t="n">
         <v>18</v>
       </c>
+      <c r="GZ63" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40352,6 +40541,9 @@
       <c r="GY64" t="n">
         <v>18</v>
       </c>
+      <c r="GZ64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40977,6 +41169,9 @@
       <c r="GY65" t="n">
         <v>18</v>
       </c>
+      <c r="GZ65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41602,6 +41797,9 @@
       <c r="GY66" t="n">
         <v>7</v>
       </c>
+      <c r="GZ66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42227,6 +42425,9 @@
       <c r="GY67" t="n">
         <v>3</v>
       </c>
+      <c r="GZ67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42852,6 +43053,9 @@
       <c r="GY68" t="n">
         <v>5</v>
       </c>
+      <c r="GZ68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43477,6 +43681,9 @@
       <c r="GY69" t="n">
         <v>4</v>
       </c>
+      <c r="GZ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44102,6 +44309,9 @@
       <c r="GY70" t="n">
         <v>16</v>
       </c>
+      <c r="GZ70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44727,6 +44937,9 @@
       <c r="GY71" t="n">
         <v>43.8</v>
       </c>
+      <c r="GZ71" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45352,6 +45565,9 @@
       <c r="GY72" t="n">
         <v>44.86</v>
       </c>
+      <c r="GZ72" t="n">
+        <v>38.67</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45977,6 +46193,9 @@
       <c r="GY73" t="n">
         <v>19.62</v>
       </c>
+      <c r="GZ73" t="n">
+        <v>21.75</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46602,6 +46821,9 @@
       <c r="GY74" t="n">
         <v>31</v>
       </c>
+      <c r="GZ74" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47227,6 +47449,9 @@
       <c r="GY75" t="n">
         <v>49</v>
       </c>
+      <c r="GZ75" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47852,6 +48077,9 @@
       <c r="GY76" t="n">
         <v>41</v>
       </c>
+      <c r="GZ76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48477,6 +48705,9 @@
       <c r="GY77" t="n">
         <v>37</v>
       </c>
+      <c r="GZ77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49102,6 +49333,9 @@
       <c r="GY78" t="n">
         <v>2.31</v>
       </c>
+      <c r="GZ78" t="n">
+        <v>2.81</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49727,6 +49961,9 @@
       <c r="GY79" t="n">
         <v>5.29</v>
       </c>
+      <c r="GZ79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50352,6 +50589,9 @@
       <c r="GY80" t="n">
         <v>32.4</v>
       </c>
+      <c r="GZ80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50977,6 +51217,9 @@
       <c r="GY81" t="n">
         <v>18.9</v>
       </c>
+      <c r="GZ81" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51602,6 +51845,9 @@
       <c r="GY82" t="n">
         <v>186.9</v>
       </c>
+      <c r="GZ82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52227,6 +52473,9 @@
       <c r="GY83" t="n">
         <v>84</v>
       </c>
+      <c r="GZ83" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52852,6 +53101,9 @@
       <c r="GY84" t="n">
         <v>24.74</v>
       </c>
+      <c r="GZ84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53477,6 +53729,9 @@
       <c r="GY85" t="n">
         <v>79.2</v>
       </c>
+      <c r="GZ85" t="n">
+        <v>109.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54102,6 +54357,9 @@
       <c r="GY86" t="n">
         <v>11</v>
       </c>
+      <c r="GZ86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54727,6 +54985,9 @@
       <c r="GY87" t="n">
         <v>2</v>
       </c>
+      <c r="GZ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55352,6 +55613,9 @@
       <c r="GY88" t="n">
         <v>7</v>
       </c>
+      <c r="GZ88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55977,6 +56241,9 @@
       <c r="GY89" t="n">
         <v>2</v>
       </c>
+      <c r="GZ89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56602,6 +56869,9 @@
       <c r="GY90" t="n">
         <v>128</v>
       </c>
+      <c r="GZ90" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57227,6 +57497,9 @@
       <c r="GY91" t="n">
         <v>179</v>
       </c>
+      <c r="GZ91" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57852,6 +58125,9 @@
       <c r="GY92" t="n">
         <v>217</v>
       </c>
+      <c r="GZ92" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58477,6 +58753,9 @@
       <c r="GY93" t="n">
         <v>69.09999999999999</v>
       </c>
+      <c r="GZ93" t="n">
+        <v>73.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59102,6 +59381,9 @@
       <c r="GY94" t="n">
         <v>49</v>
       </c>
+      <c r="GZ94" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -59727,6 +60009,9 @@
       <c r="GY95" t="n">
         <v>4</v>
       </c>
+      <c r="GZ95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60352,6 +60637,9 @@
       <c r="GY96" t="n">
         <v>4</v>
       </c>
+      <c r="GZ96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60977,6 +61265,9 @@
       <c r="GY97" t="n">
         <v>31</v>
       </c>
+      <c r="GZ97" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61602,6 +61893,9 @@
       <c r="GY98" t="n">
         <v>41</v>
       </c>
+      <c r="GZ98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62227,6 +62521,9 @@
       <c r="GY99" t="n">
         <v>60</v>
       </c>
+      <c r="GZ99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -62852,6 +63149,9 @@
       <c r="GY100" t="n">
         <v>2</v>
       </c>
+      <c r="GZ100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63477,6 +63777,9 @@
       <c r="GY101" t="n">
         <v>3</v>
       </c>
+      <c r="GZ101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64102,8 +64405,11 @@
       <c r="GY102" t="n">
         <v>42.9</v>
       </c>
+      <c r="GZ102" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Gold Coast_stats.xlsx
+++ b/Gold Coast_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ102"/>
+  <dimension ref="A1:HC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,6 +980,15 @@
       <c r="GZ1" t="n">
         <v>10243</v>
       </c>
+      <c r="HA1" t="n">
+        <v>10250</v>
+      </c>
+      <c r="HB1" t="n">
+        <v>10259</v>
+      </c>
+      <c r="HC1" t="n">
+        <v>10268</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1608,6 +1617,15 @@
       <c r="GZ2" t="n">
         <v>2020</v>
       </c>
+      <c r="HA2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2236,6 +2254,15 @@
       <c r="GZ3" t="n">
         <v>9</v>
       </c>
+      <c r="HA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2864,6 +2891,15 @@
       <c r="GZ4" t="n">
         <v>0</v>
       </c>
+      <c r="HA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3492,6 +3528,15 @@
       <c r="GZ5" t="n">
         <v>1</v>
       </c>
+      <c r="HA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4120,6 +4165,15 @@
       <c r="GZ6" t="n">
         <v>35</v>
       </c>
+      <c r="HA6" t="n">
+        <v>74</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>73</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4748,6 +4802,15 @@
       <c r="GZ7" t="n">
         <v>61</v>
       </c>
+      <c r="HA7" t="n">
+        <v>78</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>73</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5376,6 +5439,15 @@
       <c r="GZ8" t="n">
         <v>-26</v>
       </c>
+      <c r="HA8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>-21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6004,6 +6076,15 @@
       <c r="GZ9" t="n">
         <v>0</v>
       </c>
+      <c r="HA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6632,6 +6713,15 @@
       <c r="GZ10" t="n">
         <v>9</v>
       </c>
+      <c r="HA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7260,6 +7350,15 @@
       <c r="GZ11" t="n">
         <v>169</v>
       </c>
+      <c r="HA11" t="n">
+        <v>179</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>165</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7888,6 +7987,15 @@
       <c r="GZ12" t="n">
         <v>100</v>
       </c>
+      <c r="HA12" t="n">
+        <v>135</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>82</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8516,6 +8624,15 @@
       <c r="GZ13" t="n">
         <v>269</v>
       </c>
+      <c r="HA13" t="n">
+        <v>314</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>247</v>
+      </c>
+      <c r="HC13" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9144,6 +9261,15 @@
       <c r="GZ14" t="n">
         <v>1.69</v>
       </c>
+      <c r="HA14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="HB14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="HC14" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9772,6 +9898,15 @@
       <c r="GZ15" t="n">
         <v>71</v>
       </c>
+      <c r="HA15" t="n">
+        <v>52</v>
+      </c>
+      <c r="HB15" t="n">
+        <v>64</v>
+      </c>
+      <c r="HC15" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10400,6 +10535,15 @@
       <c r="GZ16" t="n">
         <v>38</v>
       </c>
+      <c r="HA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>42</v>
+      </c>
+      <c r="HC16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11028,6 +11172,15 @@
       <c r="GZ17" t="n">
         <v>27</v>
       </c>
+      <c r="HA17" t="n">
+        <v>27</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>32</v>
+      </c>
+      <c r="HC17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11656,6 +11809,15 @@
       <c r="GZ18" t="n">
         <v>10</v>
       </c>
+      <c r="HA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="HC18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12284,6 +12446,15 @@
       <c r="GZ19" t="n">
         <v>17</v>
       </c>
+      <c r="HA19" t="n">
+        <v>18</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>16</v>
+      </c>
+      <c r="HC19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12912,6 +13083,15 @@
       <c r="GZ20" t="n">
         <v>4</v>
       </c>
+      <c r="HA20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HC20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13540,6 +13720,15 @@
       <c r="GZ21" t="n">
         <v>2</v>
       </c>
+      <c r="HA21" t="n">
+        <v>5</v>
+      </c>
+      <c r="HB21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14168,6 +14357,15 @@
       <c r="GZ22" t="n">
         <v>8</v>
       </c>
+      <c r="HA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14796,6 +14994,15 @@
       <c r="GZ23" t="n">
         <v>3</v>
       </c>
+      <c r="HA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15424,6 +15631,15 @@
       <c r="GZ24" t="n">
         <v>15</v>
       </c>
+      <c r="HA24" t="n">
+        <v>19</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HC24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16052,6 +16268,15 @@
       <c r="GZ25" t="n">
         <v>26.7</v>
       </c>
+      <c r="HA25" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="HB25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HC25" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16680,6 +16905,15 @@
       <c r="GZ26" t="n">
         <v>67.25</v>
       </c>
+      <c r="HA26" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="HB26" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="HC26" t="n">
+        <v>64.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17308,6 +17542,15 @@
       <c r="GZ27" t="n">
         <v>17.93</v>
       </c>
+      <c r="HA27" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="HB27" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="HC27" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17936,6 +18179,15 @@
       <c r="GZ28" t="n">
         <v>20</v>
       </c>
+      <c r="HA28" t="n">
+        <v>36</v>
+      </c>
+      <c r="HB28" t="n">
+        <v>32</v>
+      </c>
+      <c r="HC28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18564,6 +18816,15 @@
       <c r="GZ29" t="n">
         <v>45</v>
       </c>
+      <c r="HA29" t="n">
+        <v>47</v>
+      </c>
+      <c r="HB29" t="n">
+        <v>40</v>
+      </c>
+      <c r="HC29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19192,6 +19453,15 @@
       <c r="GZ30" t="n">
         <v>35</v>
       </c>
+      <c r="HA30" t="n">
+        <v>34</v>
+      </c>
+      <c r="HB30" t="n">
+        <v>36</v>
+      </c>
+      <c r="HC30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19820,6 +20090,15 @@
       <c r="GZ31" t="n">
         <v>39</v>
       </c>
+      <c r="HA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="HB31" t="n">
+        <v>43</v>
+      </c>
+      <c r="HC31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20448,6 +20727,15 @@
       <c r="GZ32" t="n">
         <v>2.6</v>
       </c>
+      <c r="HA32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="HB32" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="HC32" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21076,6 +21364,15 @@
       <c r="GZ33" t="n">
         <v>9.75</v>
       </c>
+      <c r="HA33" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="HB33" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="HC33" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21704,6 +22001,15 @@
       <c r="GZ34" t="n">
         <v>30.8</v>
       </c>
+      <c r="HA34" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="HB34" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="HC34" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22332,6 +22638,15 @@
       <c r="GZ35" t="n">
         <v>10.3</v>
       </c>
+      <c r="HA35" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="HB35" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="HC35" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22960,6 +23275,15 @@
       <c r="GZ36" t="n">
         <v>186.9</v>
       </c>
+      <c r="HA36" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HB36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="HC36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23588,6 +23912,15 @@
       <c r="GZ37" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="HA37" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="HB37" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="HC37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24216,6 +24549,15 @@
       <c r="GZ38" t="n">
         <v>24.49</v>
       </c>
+      <c r="HA38" t="n">
+        <v>24</v>
+      </c>
+      <c r="HB38" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="HC38" t="n">
+        <v>23.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24844,6 +25186,15 @@
       <c r="GZ39" t="n">
         <v>80</v>
       </c>
+      <c r="HA39" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="HB39" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="HC39" t="n">
+        <v>57.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25472,6 +25823,15 @@
       <c r="GZ40" t="n">
         <v>9</v>
       </c>
+      <c r="HA40" t="n">
+        <v>9</v>
+      </c>
+      <c r="HB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="HC40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26100,6 +26460,15 @@
       <c r="GZ41" t="n">
         <v>5</v>
       </c>
+      <c r="HA41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26728,6 +27097,15 @@
       <c r="GZ42" t="n">
         <v>5</v>
       </c>
+      <c r="HA42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HB42" t="n">
+        <v>4</v>
+      </c>
+      <c r="HC42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27356,6 +27734,15 @@
       <c r="GZ43" t="n">
         <v>3</v>
       </c>
+      <c r="HA43" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB43" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27984,6 +28371,15 @@
       <c r="GZ44" t="n">
         <v>111</v>
       </c>
+      <c r="HA44" t="n">
+        <v>136</v>
+      </c>
+      <c r="HB44" t="n">
+        <v>114</v>
+      </c>
+      <c r="HC44" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28612,6 +29008,15 @@
       <c r="GZ45" t="n">
         <v>150</v>
       </c>
+      <c r="HA45" t="n">
+        <v>168</v>
+      </c>
+      <c r="HB45" t="n">
+        <v>126</v>
+      </c>
+      <c r="HC45" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29240,6 +29645,15 @@
       <c r="GZ46" t="n">
         <v>173</v>
       </c>
+      <c r="HA46" t="n">
+        <v>220</v>
+      </c>
+      <c r="HB46" t="n">
+        <v>160</v>
+      </c>
+      <c r="HC46" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29868,6 +30282,15 @@
       <c r="GZ47" t="n">
         <v>64.3</v>
       </c>
+      <c r="HA47" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="HB47" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="HC47" t="n">
+        <v>67.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30496,6 +30919,15 @@
       <c r="GZ48" t="n">
         <v>45</v>
       </c>
+      <c r="HA48" t="n">
+        <v>47</v>
+      </c>
+      <c r="HB48" t="n">
+        <v>40</v>
+      </c>
+      <c r="HC48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31124,6 +31556,15 @@
       <c r="GZ49" t="n">
         <v>9</v>
       </c>
+      <c r="HA49" t="n">
+        <v>11</v>
+      </c>
+      <c r="HB49" t="n">
+        <v>7</v>
+      </c>
+      <c r="HC49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31752,6 +32193,15 @@
       <c r="GZ50" t="n">
         <v>9</v>
       </c>
+      <c r="HA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HC50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32380,6 +32830,15 @@
       <c r="GZ51" t="n">
         <v>20</v>
       </c>
+      <c r="HA51" t="n">
+        <v>36</v>
+      </c>
+      <c r="HB51" t="n">
+        <v>32</v>
+      </c>
+      <c r="HC51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33008,6 +33467,15 @@
       <c r="GZ52" t="n">
         <v>35</v>
       </c>
+      <c r="HA52" t="n">
+        <v>34</v>
+      </c>
+      <c r="HB52" t="n">
+        <v>36</v>
+      </c>
+      <c r="HC52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33636,6 +34104,15 @@
       <c r="GZ53" t="n">
         <v>35</v>
       </c>
+      <c r="HA53" t="n">
+        <v>37</v>
+      </c>
+      <c r="HB53" t="n">
+        <v>39</v>
+      </c>
+      <c r="HC53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34264,6 +34741,15 @@
       <c r="GZ54" t="n">
         <v>5</v>
       </c>
+      <c r="HA54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34892,6 +35378,15 @@
       <c r="GZ55" t="n">
         <v>2</v>
       </c>
+      <c r="HA55" t="n">
+        <v>5</v>
+      </c>
+      <c r="HB55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35520,6 +36015,15 @@
       <c r="GZ56" t="n">
         <v>50</v>
       </c>
+      <c r="HA56" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="HB56" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="HC56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36148,6 +36652,15 @@
       <c r="GZ57" t="n">
         <v>209</v>
       </c>
+      <c r="HA57" t="n">
+        <v>194</v>
+      </c>
+      <c r="HB57" t="n">
+        <v>177</v>
+      </c>
+      <c r="HC57" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36776,6 +37289,15 @@
       <c r="GZ58" t="n">
         <v>139</v>
       </c>
+      <c r="HA58" t="n">
+        <v>119</v>
+      </c>
+      <c r="HB58" t="n">
+        <v>140</v>
+      </c>
+      <c r="HC58" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37404,6 +37926,15 @@
       <c r="GZ59" t="n">
         <v>348</v>
       </c>
+      <c r="HA59" t="n">
+        <v>313</v>
+      </c>
+      <c r="HB59" t="n">
+        <v>317</v>
+      </c>
+      <c r="HC59" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38032,6 +38563,15 @@
       <c r="GZ60" t="n">
         <v>1.5</v>
       </c>
+      <c r="HA60" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="HB60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="HC60" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38660,6 +39200,15 @@
       <c r="GZ61" t="n">
         <v>93</v>
       </c>
+      <c r="HA61" t="n">
+        <v>80</v>
+      </c>
+      <c r="HB61" t="n">
+        <v>74</v>
+      </c>
+      <c r="HC61" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39288,6 +39837,15 @@
       <c r="GZ62" t="n">
         <v>46</v>
       </c>
+      <c r="HA62" t="n">
+        <v>42</v>
+      </c>
+      <c r="HB62" t="n">
+        <v>44</v>
+      </c>
+      <c r="HC62" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39916,6 +40474,15 @@
       <c r="GZ63" t="n">
         <v>20</v>
       </c>
+      <c r="HA63" t="n">
+        <v>28</v>
+      </c>
+      <c r="HB63" t="n">
+        <v>24</v>
+      </c>
+      <c r="HC63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40544,6 +41111,15 @@
       <c r="GZ64" t="n">
         <v>17</v>
       </c>
+      <c r="HA64" t="n">
+        <v>18</v>
+      </c>
+      <c r="HB64" t="n">
+        <v>16</v>
+      </c>
+      <c r="HC64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41172,6 +41748,15 @@
       <c r="GZ65" t="n">
         <v>10</v>
       </c>
+      <c r="HA65" t="n">
+        <v>19</v>
+      </c>
+      <c r="HB65" t="n">
+        <v>12</v>
+      </c>
+      <c r="HC65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41800,6 +42385,15 @@
       <c r="GZ66" t="n">
         <v>9</v>
       </c>
+      <c r="HA66" t="n">
+        <v>12</v>
+      </c>
+      <c r="HB66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HC66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42428,6 +43022,15 @@
       <c r="GZ67" t="n">
         <v>8</v>
       </c>
+      <c r="HA67" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB67" t="n">
+        <v>9</v>
+      </c>
+      <c r="HC67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43056,6 +43659,15 @@
       <c r="GZ68" t="n">
         <v>6</v>
       </c>
+      <c r="HA68" t="n">
+        <v>4</v>
+      </c>
+      <c r="HB68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43684,6 +44296,15 @@
       <c r="GZ69" t="n">
         <v>1</v>
       </c>
+      <c r="HA69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB69" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44312,6 +44933,15 @@
       <c r="GZ70" t="n">
         <v>16</v>
       </c>
+      <c r="HA70" t="n">
+        <v>18</v>
+      </c>
+      <c r="HB70" t="n">
+        <v>18</v>
+      </c>
+      <c r="HC70" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44940,6 +45570,15 @@
       <c r="GZ71" t="n">
         <v>56.2</v>
       </c>
+      <c r="HA71" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HB71" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HC71" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45568,6 +46207,15 @@
       <c r="GZ72" t="n">
         <v>38.67</v>
       </c>
+      <c r="HA72" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="HB72" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="HC72" t="n">
+        <v>35.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46196,6 +46844,15 @@
       <c r="GZ73" t="n">
         <v>21.75</v>
       </c>
+      <c r="HA73" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="HB73" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="HC73" t="n">
+        <v>22.08</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46824,6 +47481,15 @@
       <c r="GZ74" t="n">
         <v>28</v>
       </c>
+      <c r="HA74" t="n">
+        <v>21</v>
+      </c>
+      <c r="HB74" t="n">
+        <v>26</v>
+      </c>
+      <c r="HC74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47452,6 +48118,15 @@
       <c r="GZ75" t="n">
         <v>46</v>
       </c>
+      <c r="HA75" t="n">
+        <v>44</v>
+      </c>
+      <c r="HB75" t="n">
+        <v>46</v>
+      </c>
+      <c r="HC75" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48080,6 +48755,15 @@
       <c r="GZ76" t="n">
         <v>34</v>
       </c>
+      <c r="HA76" t="n">
+        <v>39</v>
+      </c>
+      <c r="HB76" t="n">
+        <v>30</v>
+      </c>
+      <c r="HC76" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48708,6 +49392,15 @@
       <c r="GZ77" t="n">
         <v>45</v>
       </c>
+      <c r="HA77" t="n">
+        <v>47</v>
+      </c>
+      <c r="HB77" t="n">
+        <v>48</v>
+      </c>
+      <c r="HC77" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49336,6 +50029,15 @@
       <c r="GZ78" t="n">
         <v>2.81</v>
       </c>
+      <c r="HA78" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="HB78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="HC78" t="n">
+        <v>4.15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49964,6 +50666,15 @@
       <c r="GZ79" t="n">
         <v>5</v>
       </c>
+      <c r="HA79" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="HB79" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="HC79" t="n">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50592,6 +51303,15 @@
       <c r="GZ80" t="n">
         <v>33.3</v>
       </c>
+      <c r="HA80" t="n">
+        <v>34</v>
+      </c>
+      <c r="HB80" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="HC80" t="n">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51220,6 +51940,15 @@
       <c r="GZ81" t="n">
         <v>20</v>
       </c>
+      <c r="HA81" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="HB81" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="HC81" t="n">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51848,6 +52577,15 @@
       <c r="GZ82" t="n">
         <v>188.2</v>
       </c>
+      <c r="HA82" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="HB82" t="n">
+        <v>186</v>
+      </c>
+      <c r="HC82" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52476,6 +53214,15 @@
       <c r="GZ83" t="n">
         <v>87.7</v>
       </c>
+      <c r="HA83" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HB83" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="HC83" t="n">
+        <v>85.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53104,6 +53851,15 @@
       <c r="GZ84" t="n">
         <v>26</v>
       </c>
+      <c r="HA84" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="HB84" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="HC84" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53732,6 +54488,15 @@
       <c r="GZ85" t="n">
         <v>109.5</v>
       </c>
+      <c r="HA85" t="n">
+        <v>73</v>
+      </c>
+      <c r="HB85" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="HC85" t="n">
+        <v>91.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54360,6 +55125,15 @@
       <c r="GZ86" t="n">
         <v>6</v>
       </c>
+      <c r="HA86" t="n">
+        <v>10</v>
+      </c>
+      <c r="HB86" t="n">
+        <v>8</v>
+      </c>
+      <c r="HC86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54988,6 +55762,15 @@
       <c r="GZ87" t="n">
         <v>5</v>
       </c>
+      <c r="HA87" t="n">
+        <v>7</v>
+      </c>
+      <c r="HB87" t="n">
+        <v>8</v>
+      </c>
+      <c r="HC87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55616,6 +56399,15 @@
       <c r="GZ88" t="n">
         <v>5</v>
       </c>
+      <c r="HA88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HC88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56244,6 +57036,15 @@
       <c r="GZ89" t="n">
         <v>6</v>
       </c>
+      <c r="HA89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56872,6 +57673,15 @@
       <c r="GZ90" t="n">
         <v>131</v>
       </c>
+      <c r="HA90" t="n">
+        <v>131</v>
+      </c>
+      <c r="HB90" t="n">
+        <v>117</v>
+      </c>
+      <c r="HC90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57500,6 +58310,15 @@
       <c r="GZ91" t="n">
         <v>216</v>
       </c>
+      <c r="HA91" t="n">
+        <v>182</v>
+      </c>
+      <c r="HB91" t="n">
+        <v>188</v>
+      </c>
+      <c r="HC91" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58128,6 +58947,15 @@
       <c r="GZ92" t="n">
         <v>256</v>
       </c>
+      <c r="HA92" t="n">
+        <v>227</v>
+      </c>
+      <c r="HB92" t="n">
+        <v>230</v>
+      </c>
+      <c r="HC92" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58756,6 +59584,15 @@
       <c r="GZ93" t="n">
         <v>73.59999999999999</v>
       </c>
+      <c r="HA93" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="HB93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="HC93" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59384,6 +60221,15 @@
       <c r="GZ94" t="n">
         <v>46</v>
       </c>
+      <c r="HA94" t="n">
+        <v>44</v>
+      </c>
+      <c r="HB94" t="n">
+        <v>46</v>
+      </c>
+      <c r="HC94" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60012,6 +60858,15 @@
       <c r="GZ95" t="n">
         <v>10</v>
       </c>
+      <c r="HA95" t="n">
+        <v>14</v>
+      </c>
+      <c r="HB95" t="n">
+        <v>12</v>
+      </c>
+      <c r="HC95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60640,6 +61495,15 @@
       <c r="GZ96" t="n">
         <v>10</v>
       </c>
+      <c r="HA96" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB96" t="n">
+        <v>13</v>
+      </c>
+      <c r="HC96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61268,6 +62132,15 @@
       <c r="GZ97" t="n">
         <v>28</v>
       </c>
+      <c r="HA97" t="n">
+        <v>21</v>
+      </c>
+      <c r="HB97" t="n">
+        <v>26</v>
+      </c>
+      <c r="HC97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61896,6 +62769,15 @@
       <c r="GZ98" t="n">
         <v>34</v>
       </c>
+      <c r="HA98" t="n">
+        <v>39</v>
+      </c>
+      <c r="HB98" t="n">
+        <v>30</v>
+      </c>
+      <c r="HC98" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62524,6 +63406,15 @@
       <c r="GZ99" t="n">
         <v>51</v>
       </c>
+      <c r="HA99" t="n">
+        <v>53</v>
+      </c>
+      <c r="HB99" t="n">
+        <v>34</v>
+      </c>
+      <c r="HC99" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63152,6 +64043,15 @@
       <c r="GZ100" t="n">
         <v>4</v>
       </c>
+      <c r="HA100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HB100" t="n">
+        <v>7</v>
+      </c>
+      <c r="HC100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63780,6 +64680,15 @@
       <c r="GZ101" t="n">
         <v>8</v>
       </c>
+      <c r="HA101" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB101" t="n">
+        <v>9</v>
+      </c>
+      <c r="HC101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64408,8 +65317,17 @@
       <c r="GZ102" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="HA102" t="n">
+        <v>50</v>
+      </c>
+      <c r="HB102" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="HC102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>